--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469BFA31-5A4F-4EBD-9527-87DBFBAF5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9647E-2C64-477A-BFD7-9C63C9613ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -121,13 +121,22 @@
   </si>
   <si>
     <t>Hyperstaticité</t>
+  </si>
+  <si>
+    <t>Loi E/S</t>
+  </si>
+  <si>
+    <t>Transmetteur</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +147,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -185,16 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +218,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,454 +508,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2230" ySplit="1630" activePane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2060" ySplit="2530" topLeftCell="A12" activePane="bottomRight"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:N1048576"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="2"/>
+    <col min="3" max="6" width="2.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="88" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:14" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9647E-2C64-477A-BFD7-9C63C9613ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6138A1-BD95-47E0-9420-49CA402FF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -183,16 +190,375 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -201,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,24 +575,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,487 +978,498 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2060" ySplit="2530" topLeftCell="A12" activePane="bottomRight"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:N1048576"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="2.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="2.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.54296875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="5.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="G2" s="1" t="s">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="28" t="s">
         <v>33</v>
       </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="H23" s="8"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6138A1-BD95-47E0-9420-49CA402FF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0BE163-BECB-49F4-9B6A-A55EF45AA501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="-110" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Modélisation cinématique</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +183,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -563,11 +572,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,12 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,9 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,6 +706,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,14 +1009,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -998,482 +1032,497 @@
     <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="47">
+        <v>3</v>
+      </c>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E2" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="30" t="s">
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="43"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="43"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="43"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="43"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="43"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="5" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="I13" s="30"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="C14" s="48"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="C15" s="20"/>
+      <c r="D15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="43"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="43"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="43"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="14">
+        <v>17</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="43"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="23"/>
+      <c r="A21" s="14">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="23"/>
+      <c r="A22" s="14">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="43"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="43"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="18">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="40"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="44"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0BE163-BECB-49F4-9B6A-A55EF45AA501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0172726-BB60-4078-8413-D5F6EC472E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="-110" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -708,15 +708,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -726,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,11 +1015,11 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,10 +1042,10 @@
       <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="47">
+      <c r="E1" s="48">
         <v>3</v>
       </c>
-      <c r="F1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="22" t="s">
@@ -1051,14 +1054,14 @@
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="27" t="s">
         <v>3</v>
       </c>
@@ -1079,10 +1082,10 @@
     <row r="3" spans="1:14" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -1105,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="29"/>
       <c r="F4" s="19"/>
       <c r="G4" s="12"/>
@@ -1142,8 +1145,8 @@
       <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="30"/>
       <c r="F6" s="20"/>
       <c r="G6" s="5"/>
@@ -1162,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="30"/>
       <c r="F7" s="26"/>
       <c r="G7" s="5"/>
@@ -1180,8 +1183,8 @@
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="5"/>
@@ -1199,8 +1202,8 @@
       <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="30"/>
       <c r="F9" s="20"/>
       <c r="G9" s="5"/>
@@ -1218,7 +1221,7 @@
       <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="20"/>
       <c r="E10" s="30"/>
       <c r="F10" s="20"/>
@@ -1298,8 +1301,8 @@
       <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
       <c r="G14" s="7"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0172726-BB60-4078-8413-D5F6EC472E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D816A92-E5A2-4A6A-855E-5A546817B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -714,6 +714,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -727,9 +730,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,12 +1014,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,10 +1042,10 @@
       <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="49">
         <v>3</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="22" t="s">
@@ -1054,14 +1054,14 @@
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="27" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="49"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="29"/>
       <c r="F4" s="19"/>
       <c r="G4" s="12"/>
@@ -1126,7 +1126,7 @@
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="20"/>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D816A92-E5A2-4A6A-855E-5A546817B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB67D4-BADC-49CB-8D78-14E78AECD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Modélisation cinématique</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Documentation à continuer.</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -732,6 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1026,7 @@
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1100,7 +1107,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1127,7 +1134,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="43"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="44" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
       <c r="G5" s="7"/>
@@ -1137,6 +1146,9 @@
       <c r="K5" s="35"/>
       <c r="L5" s="26"/>
       <c r="M5" s="40"/>
+      <c r="N5" s="50" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14">

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB67D4-BADC-49CB-8D78-14E78AECD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590047D4-ADDB-45A0-8E70-90BE7EC1D1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Chaine fonctionnelle du système</t>
   </si>
   <si>
-    <t>Loi de mouvement géométrique/cinématique</t>
-  </si>
-  <si>
     <t>Modélisation de tout ou partie du système</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Hyperstaticité</t>
   </si>
   <si>
-    <t>Loi E/S</t>
-  </si>
-  <si>
     <t>Transmetteur</t>
   </si>
   <si>
@@ -139,6 +133,15 @@
   </si>
   <si>
     <t xml:space="preserve"> * Documentation à continuer.</t>
+  </si>
+  <si>
+    <t>Résolution cinématique</t>
+  </si>
+  <si>
+    <t>Analyser un système</t>
+  </si>
+  <si>
+    <t>Loi E/S, loi de mouvement</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,10 +738,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,23 +1024,18 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="4" customWidth="1"/>
-    <col min="4" max="6" width="2.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.54296875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="5.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="4.26953125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -1049,57 +1046,61 @@
       <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="E2" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="45" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H2" s="46"/>
       <c r="I2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="23"/>
@@ -1112,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="44"/>
@@ -1131,11 +1132,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
@@ -1146,8 +1147,8 @@
       <c r="K5" s="35"/>
       <c r="L5" s="26"/>
       <c r="M5" s="40"/>
-      <c r="N5" s="50" t="s">
-        <v>37</v>
+      <c r="N5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1155,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -1174,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="43"/>
@@ -1193,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -1212,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -1231,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="20"/>
@@ -1250,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1269,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1288,17 +1289,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="30"/>
       <c r="F13" s="20"/>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="26"/>
@@ -1311,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -1330,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="26"/>
@@ -1348,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1367,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1386,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1405,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1414,7 +1415,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="26"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="35"/>
       <c r="L19" s="26"/>
       <c r="M19" s="40"/>
@@ -1424,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1443,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -1462,7 +1463,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -1481,7 +1482,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -1500,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -1519,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -1537,7 +1538,7 @@
   <mergeCells count="3">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590047D4-ADDB-45A0-8E70-90BE7EC1D1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBA61C-5866-49AB-9FE2-112DCE970505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sujets" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -142,13 +154,58 @@
   </si>
   <si>
     <t>Loi E/S, loi de mouvement</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>Pilote</t>
+  </si>
+  <si>
+    <t>I3D</t>
+  </si>
+  <si>
+    <t>Eric3</t>
+  </si>
+  <si>
+    <t>RobotDelta2D</t>
+  </si>
+  <si>
+    <t>Maxpid</t>
+  </si>
+  <si>
+    <t>BrasBeta</t>
+  </si>
+  <si>
+    <t>Portail</t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>MobyCrea</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Comax</t>
+  </si>
+  <si>
+    <t>Plateforme6 axes</t>
+  </si>
+  <si>
+    <t>D2C (?)</t>
+  </si>
+  <si>
+    <t>Haptique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +235,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +272,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -598,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,6 +806,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -738,9 +821,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,6 +839,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>578134</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>322238</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104253</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C29B00-D19C-BB08-CC74-0493F8165E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8918433" y="3411940"/>
+          <a:ext cx="350671" cy="1535373"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,14 +1162,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,7 +1180,7 @@
     <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1053,19 +1194,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="47" t="s">
+    <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1224,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1249,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1126,8 +1267,17 @@
       <c r="K4" s="34"/>
       <c r="L4" s="32"/>
       <c r="M4" s="39"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1150,8 +1300,11 @@
       <c r="N5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S5" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1169,8 +1322,11 @@
       <c r="K6" s="35"/>
       <c r="L6" s="26"/>
       <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S6" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1188,8 +1344,11 @@
       <c r="K7" s="35"/>
       <c r="L7" s="26"/>
       <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S7" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1207,8 +1366,11 @@
       <c r="K8" s="35"/>
       <c r="L8" s="26"/>
       <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S8" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1226,8 +1388,14 @@
       <c r="K9" s="35"/>
       <c r="L9" s="26"/>
       <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S9" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1245,8 +1413,11 @@
       <c r="K10" s="35"/>
       <c r="L10" s="26"/>
       <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S10" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1264,8 +1435,11 @@
       <c r="K11" s="35"/>
       <c r="L11" s="26"/>
       <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S11" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1283,8 +1457,11 @@
       <c r="K12" s="35"/>
       <c r="L12" s="26"/>
       <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S12" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -1306,8 +1483,14 @@
       <c r="K13" s="35"/>
       <c r="L13" s="26"/>
       <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S13" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -1325,8 +1508,11 @@
       <c r="K14" s="35"/>
       <c r="L14" s="26"/>
       <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1343,8 +1529,11 @@
       <c r="K15" s="35"/>
       <c r="L15" s="26"/>
       <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S15" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -1362,8 +1551,11 @@
       <c r="K16" s="35"/>
       <c r="L16" s="26"/>
       <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S16" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -1381,8 +1573,11 @@
       <c r="K17" s="35"/>
       <c r="L17" s="26"/>
       <c r="M17" s="40"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S17" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>15</v>
       </c>
@@ -1401,7 +1596,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -1415,12 +1610,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="49"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="35"/>
       <c r="L19" s="26"/>
       <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S19" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -1438,8 +1636,11 @@
       <c r="K20" s="35"/>
       <c r="L20" s="26"/>
       <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S20" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -1457,8 +1658,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="26"/>
       <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S21" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>19</v>
       </c>
@@ -1477,7 +1681,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="40"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>20</v>
       </c>
@@ -1496,7 +1700,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="40"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -1515,7 +1719,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="40"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>22</v>
       </c>
@@ -1542,5 +1746,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBA61C-5866-49AB-9FE2-112DCE970505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F73DDF-9016-49EA-8E2C-0424DD0C3174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Portail ABB</t>
   </si>
   <si>
-    <t>Robot à câbles</t>
-  </si>
-  <si>
     <t>Robot Delta 2D</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Haptique</t>
+  </si>
+  <si>
+    <t>Robot à câbles RC4</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -678,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -809,21 +815,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,11 +1175,11 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,18 +1205,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="46" t="s">
+      <c r="C2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="52"/>
       <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1232,16 +1242,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="23"/>
@@ -1268,25 +1278,25 @@
       <c r="L4" s="32"/>
       <c r="M4" s="39"/>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="52" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
@@ -1298,17 +1308,17 @@
       <c r="L5" s="26"/>
       <c r="M5" s="40"/>
       <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="50" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="S5" s="46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="43"/>
@@ -1322,18 +1332,18 @@
       <c r="K6" s="35"/>
       <c r="L6" s="26"/>
       <c r="M6" s="40"/>
-      <c r="S6" s="50" t="s">
-        <v>42</v>
+      <c r="S6" s="46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="43"/>
       <c r="E7" s="30"/>
       <c r="F7" s="26"/>
@@ -1344,15 +1354,15 @@
       <c r="K7" s="35"/>
       <c r="L7" s="26"/>
       <c r="M7" s="40"/>
-      <c r="S7" s="50" t="s">
-        <v>43</v>
+      <c r="S7" s="46" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="43"/>
@@ -1366,15 +1376,15 @@
       <c r="K8" s="35"/>
       <c r="L8" s="26"/>
       <c r="M8" s="40"/>
-      <c r="S8" s="50" t="s">
-        <v>44</v>
+      <c r="S8" s="46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="43"/>
@@ -1388,8 +1398,8 @@
       <c r="K9" s="35"/>
       <c r="L9" s="26"/>
       <c r="M9" s="40"/>
-      <c r="S9" s="50" t="s">
-        <v>45</v>
+      <c r="S9" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="T9" t="s">
         <v>13</v>
@@ -1413,7 +1423,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="26"/>
       <c r="M10" s="40"/>
-      <c r="S10" s="50" t="s">
+      <c r="S10" s="46" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1435,8 +1445,8 @@
       <c r="K11" s="35"/>
       <c r="L11" s="26"/>
       <c r="M11" s="40"/>
-      <c r="S11" s="50" t="s">
-        <v>46</v>
+      <c r="S11" s="46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -1457,8 +1467,8 @@
       <c r="K12" s="35"/>
       <c r="L12" s="26"/>
       <c r="M12" s="40"/>
-      <c r="S12" s="50" t="s">
-        <v>24</v>
+      <c r="S12" s="46" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -1473,28 +1483,28 @@
       <c r="E13" s="30"/>
       <c r="F13" s="20"/>
       <c r="G13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="26"/>
       <c r="K13" s="35"/>
       <c r="L13" s="26"/>
       <c r="M13" s="40"/>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="47" t="s">
         <v>47</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="43"/>
@@ -1509,7 +1519,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="40"/>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -1529,8 +1539,8 @@
       <c r="K15" s="35"/>
       <c r="L15" s="26"/>
       <c r="M15" s="40"/>
-      <c r="S15" s="50" t="s">
-        <v>50</v>
+      <c r="S15" s="46" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1551,8 +1561,8 @@
       <c r="K16" s="35"/>
       <c r="L16" s="26"/>
       <c r="M16" s="40"/>
-      <c r="S16" s="50" t="s">
-        <v>51</v>
+      <c r="S16" s="46" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1573,8 +1583,8 @@
       <c r="K17" s="35"/>
       <c r="L17" s="26"/>
       <c r="M17" s="40"/>
-      <c r="S17" s="50" t="s">
-        <v>52</v>
+      <c r="S17" s="46" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1600,10 +1610,10 @@
       <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="20"/>
+      <c r="B19" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="49"/>
       <c r="D19" s="20"/>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
@@ -1614,7 +1624,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="26"/>
       <c r="M19" s="40"/>
-      <c r="S19" s="50" t="s">
+      <c r="S19" s="46" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1622,8 +1632,8 @@
       <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>23</v>
+      <c r="B20" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1636,8 +1646,8 @@
       <c r="K20" s="35"/>
       <c r="L20" s="26"/>
       <c r="M20" s="40"/>
-      <c r="S20" s="50" t="s">
-        <v>53</v>
+      <c r="S20" s="46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1645,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -1658,16 +1668,16 @@
       <c r="K21" s="35"/>
       <c r="L21" s="26"/>
       <c r="M21" s="40"/>
-      <c r="S21" s="50" t="s">
-        <v>41</v>
+      <c r="S21" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>24</v>
+      <c r="B22" s="50" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -1686,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -1705,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -1724,7 +1734,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F73DDF-9016-49EA-8E2C-0424DD0C3174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBAA0AA-DAD1-4B20-BFE6-F5CFF6378D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -1174,12 +1174,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1266,9 @@
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="49">
+        <v>1</v>
+      </c>
       <c r="D4" s="44"/>
       <c r="E4" s="29"/>
       <c r="F4" s="19"/>
@@ -1294,7 +1296,9 @@
       <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="43">
+        <v>2</v>
+      </c>
       <c r="D5" s="44" t="s">
         <v>33</v>
       </c>
@@ -1321,7 +1325,9 @@
       <c r="B6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="43">
+        <v>3</v>
+      </c>
       <c r="D6" s="43"/>
       <c r="E6" s="30"/>
       <c r="F6" s="20"/>
@@ -1343,7 +1349,9 @@
       <c r="B7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="49">
+        <v>4</v>
+      </c>
       <c r="D7" s="43"/>
       <c r="E7" s="30"/>
       <c r="F7" s="26"/>
@@ -1365,7 +1373,9 @@
       <c r="B8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="43">
+        <v>5</v>
+      </c>
       <c r="D8" s="43"/>
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
@@ -1387,7 +1397,9 @@
       <c r="B9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="43">
+        <v>6</v>
+      </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
       <c r="F9" s="20"/>
@@ -1507,7 +1519,9 @@
       <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="43">
+        <v>7</v>
+      </c>
       <c r="D14" s="43"/>
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
@@ -1547,11 +1561,15 @@
       <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="49">
+        <v>8</v>
+      </c>
+      <c r="D16" s="49">
+        <v>8</v>
+      </c>
       <c r="E16" s="30"/>
       <c r="F16" s="20"/>
       <c r="G16" s="7"/>
@@ -1613,8 +1631,12 @@
       <c r="B19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="49">
+        <v>9</v>
+      </c>
+      <c r="D19" s="49">
+        <v>9</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
       <c r="G19" s="7"/>
@@ -1657,8 +1679,12 @@
       <c r="B21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="49">
+        <v>10</v>
+      </c>
+      <c r="D21" s="49">
+        <v>10</v>
+      </c>
       <c r="E21" s="30"/>
       <c r="F21" s="20"/>
       <c r="G21" s="7"/>
@@ -1679,8 +1705,12 @@
       <c r="B22" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="49">
+        <v>11</v>
+      </c>
+      <c r="D22" s="49">
+        <v>11</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="20"/>
       <c r="G22" s="7"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBAA0AA-DAD1-4B20-BFE6-F5CFF6378D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFA33B-7B1C-4788-9116-C8A62AC6171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -199,6 +199,129 @@
   </si>
   <si>
     <t>Robot à câbles RC4</t>
+  </si>
+  <si>
+    <t>Abd-Rabi</t>
+  </si>
+  <si>
+    <t>Adamczak</t>
+  </si>
+  <si>
+    <t>Alarcon Figueroa</t>
+  </si>
+  <si>
+    <t>Allagnat</t>
+  </si>
+  <si>
+    <t>Argoud</t>
+  </si>
+  <si>
+    <t>Arnaud-Vendrell</t>
+  </si>
+  <si>
+    <t>Attallaoui</t>
+  </si>
+  <si>
+    <t>Belli</t>
+  </si>
+  <si>
+    <t>Benoit</t>
+  </si>
+  <si>
+    <t>Besqueut</t>
+  </si>
+  <si>
+    <t>Bourgeois</t>
+  </si>
+  <si>
+    <t>Cameriano</t>
+  </si>
+  <si>
+    <t>Caudron</t>
+  </si>
+  <si>
+    <t>Chapelon</t>
+  </si>
+  <si>
+    <t>Chebunin</t>
+  </si>
+  <si>
+    <t>Conti</t>
+  </si>
+  <si>
+    <t>Correia</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Delorme</t>
+  </si>
+  <si>
+    <t>Ferret</t>
+  </si>
+  <si>
+    <t>Fontaney</t>
+  </si>
+  <si>
+    <t>Fouillet</t>
+  </si>
+  <si>
+    <t>Fournier</t>
+  </si>
+  <si>
+    <t>Gron</t>
+  </si>
+  <si>
+    <t>Guillaud</t>
+  </si>
+  <si>
+    <t>Halimi</t>
+  </si>
+  <si>
+    <t>Hudault</t>
+  </si>
+  <si>
+    <t>Hupond</t>
+  </si>
+  <si>
+    <t>Lafay</t>
+  </si>
+  <si>
+    <t>Lamrani</t>
+  </si>
+  <si>
+    <t>Landraud</t>
+  </si>
+  <si>
+    <t>Lanoizelée</t>
+  </si>
+  <si>
+    <t>Lyannaz</t>
+  </si>
+  <si>
+    <t>Maillet</t>
+  </si>
+  <si>
+    <t>Maljournal</t>
+  </si>
+  <si>
+    <t>Mazet-Rouy</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>Pinçon</t>
+  </si>
+  <si>
+    <t>Rataj</t>
+  </si>
+  <si>
+    <t>Rouch</t>
   </si>
 </sst>
 </file>
@@ -684,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -833,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,12 +1300,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="A4:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1792,12 +1918,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="B1:W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="23" width="4.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFA33B-7B1C-4788-9116-C8A62AC6171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA472368-C49C-423C-A1C3-812196D1E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -201,127 +201,142 @@
     <t>Robot à câbles RC4</t>
   </si>
   <si>
-    <t>Abd-Rabi</t>
-  </si>
-  <si>
-    <t>Adamczak</t>
-  </si>
-  <si>
-    <t>Alarcon Figueroa</t>
-  </si>
-  <si>
-    <t>Allagnat</t>
-  </si>
-  <si>
-    <t>Argoud</t>
-  </si>
-  <si>
-    <t>Arnaud-Vendrell</t>
-  </si>
-  <si>
-    <t>Attallaoui</t>
-  </si>
-  <si>
-    <t>Belli</t>
-  </si>
-  <si>
-    <t>Benoit</t>
-  </si>
-  <si>
-    <t>Besqueut</t>
-  </si>
-  <si>
-    <t>Bourgeois</t>
-  </si>
-  <si>
-    <t>Cameriano</t>
-  </si>
-  <si>
-    <t>Caudron</t>
-  </si>
-  <si>
-    <t>Chapelon</t>
-  </si>
-  <si>
-    <t>Chebunin</t>
-  </si>
-  <si>
-    <t>Conti</t>
-  </si>
-  <si>
-    <t>Correia</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>Delorme</t>
-  </si>
-  <si>
-    <t>Ferret</t>
-  </si>
-  <si>
-    <t>Fontaney</t>
-  </si>
-  <si>
-    <t>Fouillet</t>
-  </si>
-  <si>
-    <t>Fournier</t>
-  </si>
-  <si>
     <t>Gron</t>
   </si>
   <si>
     <t>Guillaud</t>
   </si>
   <si>
-    <t>Halimi</t>
-  </si>
-  <si>
-    <t>Hudault</t>
-  </si>
-  <si>
-    <t>Hupond</t>
-  </si>
-  <si>
-    <t>Lafay</t>
-  </si>
-  <si>
-    <t>Lamrani</t>
-  </si>
-  <si>
-    <t>Landraud</t>
-  </si>
-  <si>
-    <t>Lanoizelée</t>
-  </si>
-  <si>
-    <t>Lyannaz</t>
-  </si>
-  <si>
-    <t>Maillet</t>
-  </si>
-  <si>
-    <t>Maljournal</t>
-  </si>
-  <si>
-    <t>Mazet-Rouy</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Pena</t>
-  </si>
-  <si>
-    <t>Pinçon</t>
-  </si>
-  <si>
-    <t>Rataj</t>
-  </si>
-  <si>
-    <t>Rouch</t>
+    <t>1,2 ?</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>* Comparer deux modes de raliement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Documentation à continuer : explication logiciels et port com</t>
+  </si>
+  <si>
+    <t>S. Abd</t>
+  </si>
+  <si>
+    <t>C. Arg</t>
+  </si>
+  <si>
+    <t>K All</t>
+  </si>
+  <si>
+    <t>E Ala</t>
+  </si>
+  <si>
+    <t>J. Ada</t>
+  </si>
+  <si>
+    <t>M. Arn</t>
+  </si>
+  <si>
+    <t>H Att</t>
+  </si>
+  <si>
+    <t>V. Bel</t>
+  </si>
+  <si>
+    <t>R. Ben</t>
+  </si>
+  <si>
+    <t>J. Bes</t>
+  </si>
+  <si>
+    <t>C. Bou</t>
+  </si>
+  <si>
+    <t>E. Cam</t>
+  </si>
+  <si>
+    <t>L. Cau</t>
+  </si>
+  <si>
+    <t>A. Cha</t>
+  </si>
+  <si>
+    <t>I Che</t>
+  </si>
+  <si>
+    <t>J. Co</t>
+  </si>
+  <si>
+    <t>J. Cor</t>
+  </si>
+  <si>
+    <t>L. Cou</t>
+  </si>
+  <si>
+    <t>M. Del</t>
+  </si>
+  <si>
+    <t>C. Fer</t>
+  </si>
+  <si>
+    <t>B. Fon</t>
+  </si>
+  <si>
+    <t>B. Fou</t>
+  </si>
+  <si>
+    <t>P. Fou</t>
+  </si>
+  <si>
+    <t>N. Hal</t>
+  </si>
+  <si>
+    <t>C. Hud</t>
+  </si>
+  <si>
+    <t>N. Hup</t>
+  </si>
+  <si>
+    <t>C. Laf</t>
+  </si>
+  <si>
+    <t>A. Lam</t>
+  </si>
+  <si>
+    <t>E. Lan</t>
+  </si>
+  <si>
+    <t>V. Lan</t>
+  </si>
+  <si>
+    <t>L. Lya</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>S. Mal</t>
+  </si>
+  <si>
+    <t>E. Maz</t>
+  </si>
+  <si>
+    <t>E. Oud</t>
+  </si>
+  <si>
+    <t>L. Pen</t>
+  </si>
+  <si>
+    <t>J. Pin</t>
+  </si>
+  <si>
+    <t>C. Rat</t>
+  </si>
+  <si>
+    <t>Q. Rou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Documentation à continuer (composants et courbes), mesure d'échantilloonage et choix des courbes</t>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +422,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -807,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -945,6 +966,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -956,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,12 +1330,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="A4:B25"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,18 +1361,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="52"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1422,15 +1452,15 @@
       <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="43">
-        <v>2</v>
+      <c r="C5" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="8"/>
       <c r="I5" s="30"/>
       <c r="J5" s="26"/>
@@ -1439,6 +1469,9 @@
       <c r="M5" s="40"/>
       <c r="N5" t="s">
         <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
       </c>
       <c r="S5" s="46" t="s">
         <v>38</v>
@@ -1528,7 +1561,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
       <c r="I9" s="30"/>
@@ -1572,8 +1605,8 @@
       <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="30"/>
       <c r="F11" s="26"/>
       <c r="G11" s="5"/>
@@ -1594,8 +1627,8 @@
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="30"/>
       <c r="F12" s="26"/>
       <c r="G12" s="5"/>
@@ -1616,8 +1649,8 @@
       <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="30"/>
       <c r="F13" s="20"/>
       <c r="G13" s="5" t="s">
@@ -1651,7 +1684,7 @@
       <c r="D14" s="43"/>
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="6"/>
       <c r="I14" s="30"/>
       <c r="J14" s="26"/>
@@ -1698,13 +1731,16 @@
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="8"/>
       <c r="I16" s="30"/>
       <c r="J16" s="26"/>
       <c r="K16" s="35"/>
       <c r="L16" s="26"/>
       <c r="M16" s="40"/>
+      <c r="N16" t="s">
+        <v>59</v>
+      </c>
       <c r="S16" s="46" t="s">
         <v>50</v>
       </c>
@@ -1765,13 +1801,16 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="6"/>
       <c r="I19" s="30"/>
       <c r="J19" s="45"/>
       <c r="K19" s="35"/>
       <c r="L19" s="26"/>
       <c r="M19" s="40"/>
+      <c r="N19" t="s">
+        <v>99</v>
+      </c>
       <c r="S19" s="46" t="s">
         <v>12</v>
       </c>
@@ -1783,8 +1822,8 @@
       <c r="B20" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="30"/>
       <c r="F20" s="20"/>
       <c r="G20" s="7"/>
@@ -1812,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="30"/>
@@ -1892,8 +1931,8 @@
       <c r="B25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="31"/>
       <c r="F25" s="21"/>
       <c r="G25" s="9"/>
@@ -1920,12 +1959,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="B1:W2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="P5" sqref="P5"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="4.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1998,86 +2042,84 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="51" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2085,27 +2127,39 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2113,7 +2167,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="S11">
         <v>1.2</v>
@@ -2121,7 +2175,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2129,12 +2183,15 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2142,7 +2199,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L15">
         <v>1.2</v>
@@ -2150,159 +2207,228 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="T28">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="T31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="E37">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="L38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="C40">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R43">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA472368-C49C-423C-A1C3-812196D1E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535590A-5C66-450D-8308-A69E443D9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -989,6 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,11 +1334,11 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1561,7 +1564,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
       <c r="I9" s="30"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535590A-5C66-450D-8308-A69E443D9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371720CB-396D-40BD-96A8-049B291B3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,6 +978,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -989,9 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,11 +1334,11 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,20 +1362,23 @@
       <c r="F1" s="4">
         <v>4</v>
       </c>
+      <c r="G1" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1421,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1458,7 +1461,7 @@
       <c r="C5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="30"/>
@@ -1564,7 +1567,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="59"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
       <c r="I9" s="30"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371720CB-396D-40BD-96A8-049B291B3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03DE7C-AFEA-45D1-A2F5-C3C538A7B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1333,12 +1333,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:H2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03DE7C-AFEA-45D1-A2F5-C3C538A7B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF28200-EF3F-4EDC-B2AE-B1D7C4C218A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Analyser un système</t>
   </si>
   <si>
-    <t>Loi E/S, loi de mouvement</t>
-  </si>
-  <si>
     <t>BGR</t>
   </si>
   <si>
@@ -337,6 +334,12 @@
   </si>
   <si>
     <t xml:space="preserve"> * Documentation à continuer (composants et courbes), mesure d'échantilloonage et choix des courbes</t>
+  </si>
+  <si>
+    <t>Loi de mouvement (Souhaité - Reél)</t>
+  </si>
+  <si>
+    <t>Loi de mouvement (Simulé - Souhaité)</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -992,6 +995,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,13 +1026,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>578134</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>322238</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104253</xdr:rowOff>
@@ -1331,25 +1343,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="4.26953125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="3" max="14" width="4.26953125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1366,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="58" t="s">
         <v>36</v>
       </c>
@@ -1378,25 +1390,26 @@
       <c r="G2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
@@ -1410,18 +1423,21 @@
         <v>29</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J3" s="28"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1435,23 +1451,24 @@
       <c r="E4" s="29"/>
       <c r="F4" s="19"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="39"/>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="39"/>
       <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1459,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>33</v>
@@ -1467,23 +1484,24 @@
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="40"/>
-      <c r="N5" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="40"/>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1497,17 +1515,18 @@
       <c r="E6" s="30"/>
       <c r="F6" s="20"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="40"/>
-      <c r="S6" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H6" s="35"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="40"/>
+      <c r="T6" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1521,17 +1540,18 @@
       <c r="E7" s="30"/>
       <c r="F7" s="26"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="40"/>
-      <c r="S7" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H7" s="35"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="40"/>
+      <c r="T7" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1545,17 +1565,18 @@
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="40"/>
-      <c r="S8" s="46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H8" s="35"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="40"/>
+      <c r="T8" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1569,20 +1590,21 @@
       <c r="E9" s="30"/>
       <c r="F9" s="55"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="40"/>
-      <c r="S9" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="40"/>
+      <c r="T9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1594,17 +1616,18 @@
       <c r="E10" s="30"/>
       <c r="F10" s="20"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="40"/>
-      <c r="S10" s="46" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="40"/>
+      <c r="T10" s="46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1616,17 +1639,18 @@
       <c r="E11" s="30"/>
       <c r="F11" s="26"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="40"/>
-      <c r="S11" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H11" s="35"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="40"/>
+      <c r="T11" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1638,17 +1662,18 @@
       <c r="E12" s="30"/>
       <c r="F12" s="26"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="40"/>
-      <c r="S12" s="46" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="40"/>
+      <c r="T12" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -1662,22 +1687,23 @@
       <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="40"/>
-      <c r="S13" s="46" t="s">
+      <c r="J13" s="30"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="40"/>
+      <c r="T13" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -1691,17 +1717,18 @@
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="40"/>
-      <c r="S14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H14" s="62"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="40"/>
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1712,17 +1739,18 @@
       <c r="D15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="40"/>
-      <c r="S15" s="46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H15" s="35"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="40"/>
+      <c r="T15" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -1737,21 +1765,22 @@
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="40"/>
-      <c r="N16" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I16" s="8"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="40"/>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -1763,17 +1792,18 @@
       <c r="E17" s="30"/>
       <c r="F17" s="20"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="40"/>
-      <c r="S17" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H17" s="30"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="40"/>
+      <c r="T17" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>15</v>
       </c>
@@ -1785,19 +1815,20 @@
       <c r="E18" s="30"/>
       <c r="F18" s="20"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H18" s="30"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>16</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="49">
         <v>9</v>
@@ -1808,20 +1839,21 @@
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="40"/>
-      <c r="N19" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="46" t="s">
+      <c r="H19" s="62"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="40"/>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -1833,17 +1865,18 @@
       <c r="E20" s="30"/>
       <c r="F20" s="20"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="40"/>
-      <c r="S20" s="46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H20" s="30"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="40"/>
+      <c r="T20" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -1859,17 +1892,18 @@
       <c r="E21" s="30"/>
       <c r="F21" s="53"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="40"/>
-      <c r="S21" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H21" s="30"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="40"/>
+      <c r="T21" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>19</v>
       </c>
@@ -1885,14 +1919,15 @@
       <c r="E22" s="30"/>
       <c r="F22" s="20"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H22" s="30"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>20</v>
       </c>
@@ -1904,14 +1939,15 @@
       <c r="E23" s="30"/>
       <c r="F23" s="20"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H23" s="30"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -1923,14 +1959,15 @@
       <c r="E24" s="30"/>
       <c r="F24" s="26"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="35"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>22</v>
       </c>
@@ -1942,16 +1979,17 @@
       <c r="E25" s="31"/>
       <c r="F25" s="21"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="41"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
@@ -2094,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="51" t="s">
         <v>22</v>
@@ -2117,7 +2155,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2125,7 +2163,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2133,15 +2171,15 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -2149,23 +2187,23 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2173,7 +2211,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S11">
         <v>1.2</v>
@@ -2181,7 +2219,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2189,15 +2227,15 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2205,7 +2243,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15">
         <v>1.2</v>
@@ -2213,15 +2251,15 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2229,28 +2267,28 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2258,7 +2296,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2266,7 +2304,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>1.2</v>
@@ -2274,7 +2312,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2282,7 +2320,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2290,7 +2328,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2298,7 +2336,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27">
         <v>1.2</v>
@@ -2306,7 +2344,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T28">
         <v>1.2</v>
@@ -2314,15 +2352,15 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2330,7 +2368,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T31">
         <v>1.2</v>
@@ -2338,15 +2376,15 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2354,7 +2392,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2362,12 +2400,12 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>1.2</v>
@@ -2375,7 +2413,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>1.2</v>
@@ -2383,7 +2421,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L38">
         <v>1.2</v>
@@ -2391,15 +2429,15 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>1.2</v>
@@ -2407,7 +2445,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -2415,7 +2453,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42">
         <v>1.2</v>
@@ -2423,7 +2461,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R43">
         <v>1.2</v>
@@ -2431,7 +2469,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T44">
         <v>1</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF28200-EF3F-4EDC-B2AE-B1D7C4C218A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79972646-52FE-486B-B491-967977EEB951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +431,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -831,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,9 +990,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -995,15 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,11 +1358,11 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,19 +1391,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="G3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="56" t="s">
         <v>100</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -1484,7 +1496,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="62"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="8"/>
       <c r="J5" s="30"/>
       <c r="K5" s="26"/>
@@ -1716,8 +1728,8 @@
       <c r="D14" s="43"/>
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="26"/>
@@ -1765,8 +1777,8 @@
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="8"/>
       <c r="J16" s="30"/>
       <c r="K16" s="26"/>
@@ -1839,7 +1851,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="62"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="6"/>
       <c r="J19" s="30"/>
       <c r="K19" s="45"/>
@@ -1919,7 +1931,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="20"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="6"/>
       <c r="J22" s="30"/>
       <c r="K22" s="26"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79972646-52FE-486B-B491-967977EEB951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC22FB-82A1-46CB-A313-18E411C4218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Loi de mouvement (Simulé - Souhaité)</t>
+  </si>
+  <si>
+    <t>Identif BO</t>
   </si>
 </sst>
 </file>
@@ -1032,64 +1035,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>578134</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>322238</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104253</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C29B00-D19C-BB08-CC74-0493F8165E9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8918433" y="3411940"/>
-          <a:ext cx="350671" cy="1535373"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1358,11 +1303,11 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,6 +1334,24 @@
       <c r="G1" s="4">
         <v>5</v>
       </c>
+      <c r="I1" s="4">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="63" t="s">
@@ -1476,9 +1439,7 @@
       <c r="U4" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="48" t="s">
-        <v>46</v>
-      </c>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
@@ -1530,7 +1491,9 @@
       <c r="H6" s="35"/>
       <c r="I6" s="8"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="26"/>
+      <c r="K6" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" s="35"/>
       <c r="M6" s="26"/>
       <c r="N6" s="40"/>
@@ -1557,7 +1520,9 @@
       <c r="J7" s="30"/>
       <c r="K7" s="26"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="N7" s="40"/>
       <c r="T7" s="46" t="s">
         <v>41</v>
@@ -1579,11 +1544,19 @@
       <c r="G8" s="5"/>
       <c r="H8" s="35"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="K8" s="26"/>
       <c r="L8" s="35"/>
       <c r="M8" s="26"/>
       <c r="N8" s="40"/>
+      <c r="O8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>101</v>
+      </c>
       <c r="T8" s="46" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1573,9 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="55" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="35"/>
       <c r="I9" s="8"/>
@@ -1632,7 +1607,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="M10" s="26"/>
       <c r="N10" s="40"/>
       <c r="T10" s="46" t="s">
@@ -1695,14 +1672,12 @@
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="20" t="s">
         <v>31</v>
       </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="26"/>
       <c r="L13" s="35"/>
@@ -1729,7 +1704,9 @@
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="59"/>
+      <c r="H14" s="59" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="26"/>
@@ -1776,8 +1753,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="30"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="58"/>
+      <c r="F16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" s="30"/>
       <c r="I16" s="8"/>
       <c r="J16" s="30"/>
@@ -1850,7 +1831,9 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="53"/>
+      <c r="G19" s="53" t="s">
+        <v>47</v>
+      </c>
       <c r="H19" s="57"/>
       <c r="I19" s="6"/>
       <c r="J19" s="30"/>
@@ -1902,7 +1885,9 @@
         <v>10</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="53"/>
+      <c r="F21" s="53" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="30"/>
       <c r="I21" s="6"/>
@@ -1931,7 +1916,9 @@
       <c r="E22" s="30"/>
       <c r="F22" s="20"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="59"/>
+      <c r="H22" s="59" t="s">
+        <v>31</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="30"/>
       <c r="K22" s="26"/>
@@ -2007,7 +1994,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC22FB-82A1-46CB-A313-18E411C4218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44043F5-7B95-469C-A442-7830240F965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -840,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1019,6 +1019,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,7 +1310,7 @@
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F4:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,7 +1494,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="8"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="59" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="35"/>
@@ -1544,7 +1547,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="35"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="59" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="26"/>
@@ -1669,10 +1672,10 @@
       <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="52"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="65" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="5"/>
@@ -1831,9 +1834,7 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="53" t="s">
-        <v>47</v>
-      </c>
+      <c r="G19" s="53"/>
       <c r="H19" s="57"/>
       <c r="I19" s="6"/>
       <c r="J19" s="30"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44043F5-7B95-469C-A442-7830240F965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -348,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -990,9 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1005,6 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1019,9 +1018,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,26 +1298,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F4:K22"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="4.26953125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="14" width="4.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1356,7 +1352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="63" t="s">
         <v>36</v>
       </c>
@@ -1387,7 +1383,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="89.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1399,7 @@
       <c r="G3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>100</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -1415,7 +1411,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1444,7 +1440,7 @@
       </c>
       <c r="V4" s="48"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1460,7 +1456,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="57"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="8"/>
       <c r="J5" s="30"/>
       <c r="K5" s="26"/>
@@ -1477,7 +1473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1504,7 +1500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1531,7 +1527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1547,7 +1543,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="35"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="58" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="26"/>
@@ -1564,7 +1560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1576,7 +1572,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="57" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="5"/>
@@ -1594,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1610,7 +1606,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="58" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="26"/>
@@ -1619,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1642,7 +1638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1665,17 +1661,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="52"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="59" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="5"/>
@@ -1693,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -1707,7 +1703,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="6"/>
@@ -1720,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -1756,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="30"/>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="57" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="30"/>
@@ -1776,7 +1772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -1799,7 +1795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>15</v>
       </c>
@@ -1819,7 +1815,7 @@
       <c r="M18" s="26"/>
       <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -1835,7 +1831,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="57"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="6"/>
       <c r="J19" s="30"/>
       <c r="K19" s="45"/>
@@ -1849,7 +1845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="57" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7"/>
@@ -1901,7 +1897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>19</v>
       </c>
@@ -1917,7 +1913,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="20"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="6"/>
@@ -1927,7 +1923,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="40"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>20</v>
       </c>
@@ -1947,7 +1943,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="40"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -1967,7 +1963,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="40"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>22</v>
       </c>
@@ -1999,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2010,13 +2006,13 @@
       <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2084,7 +2080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2160,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +2172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2184,7 +2180,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2192,7 +2188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2200,7 +2196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2216,7 +2212,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2244,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2264,12 +2260,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2305,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2317,7 +2313,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2333,7 +2329,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2337,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2349,7 +2345,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2365,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -2389,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -2397,12 +2393,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -2426,7 +2422,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2434,7 +2430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2450,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2466,7 +2462,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44043F5-7B95-469C-A442-7830240F965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85D2B8-B24F-4BEE-99AA-A1255F0398AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4150" yWindow="0" windowWidth="14400" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -198,12 +198,6 @@
     <t>Robot à câbles RC4</t>
   </si>
   <si>
-    <t>Gron</t>
-  </si>
-  <si>
-    <t>Guillaud</t>
-  </si>
-  <si>
     <t>1,2 ?</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>I Che</t>
   </si>
   <si>
-    <t>J. Co</t>
-  </si>
-  <si>
     <t>J. Cor</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>L. Lya</t>
   </si>
   <si>
-    <t>Mai</t>
-  </si>
-  <si>
     <t>S. Mal</t>
   </si>
   <si>
@@ -343,6 +331,30 @@
   </si>
   <si>
     <t>Identif BO</t>
+  </si>
+  <si>
+    <t>L. Gro</t>
+  </si>
+  <si>
+    <t>H. Gui</t>
+  </si>
+  <si>
+    <t>J. Cont</t>
+  </si>
+  <si>
+    <t>1,5,</t>
+  </si>
+  <si>
+    <t>1,2,</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>M. Mai</t>
+  </si>
+  <si>
+    <t>1,10,</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1017,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1019,9 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,12 +1317,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F4:K22"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="E17:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,19 +1369,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1401,10 +1413,10 @@
         <v>29</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>30</v>
@@ -1452,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>33</v>
@@ -1471,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T5" s="46" t="s">
         <v>37</v>
@@ -1558,7 +1570,7 @@
         <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T8" s="46" t="s">
         <v>42</v>
@@ -1672,10 +1684,10 @@
       <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="52"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="60" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="5"/>
@@ -1770,7 +1782,7 @@
       <c r="M16" s="26"/>
       <c r="N16" s="40"/>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T16" s="46" t="s">
         <v>49</v>
@@ -1843,7 +1855,7 @@
       <c r="M19" s="26"/>
       <c r="N19" s="40"/>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T19" s="46" t="s">
         <v>12</v>
@@ -2002,12 +2014,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="I37" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="P5" sqref="P5"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2154,7 +2166,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2162,7 +2174,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2170,15 +2182,15 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -2186,7 +2198,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -2194,7 +2206,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -2202,7 +2214,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2210,7 +2222,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S11">
         <v>1.2</v>
@@ -2218,7 +2230,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2226,7 +2238,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -2234,7 +2246,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2242,7 +2254,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>1.7</v>
       </c>
       <c r="L15">
         <v>1.2</v>
@@ -2250,44 +2265,56 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
+      <c r="N16">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
+      <c r="G17">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>1.8</v>
+      </c>
+      <c r="Q19">
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="K20">
+        <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2295,23 +2322,29 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
+      <c r="F22">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>1.2</v>
       </c>
+      <c r="Q23">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2319,7 +2352,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2327,7 +2360,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2335,15 +2368,21 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
       </c>
       <c r="T28">
         <v>1.2</v>
@@ -2351,23 +2390,26 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
+      <c r="N29">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="S30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T31">
         <v>1.2</v>
@@ -2375,15 +2417,24 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
+      <c r="L32">
+        <v>1.2</v>
+      </c>
+      <c r="T32">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2391,7 +2442,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <v>1.8</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2399,44 +2453,59 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>1.2</v>
       </c>
+      <c r="S36">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>1.2</v>
       </c>
+      <c r="Q37">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L38">
         <v>1.2</v>
       </c>
+      <c r="S38">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>1.2</v>
       </c>
       <c r="C40">
         <v>1.2</v>
@@ -2444,7 +2513,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>1.4</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -2452,7 +2524,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>1.2</v>
@@ -2460,7 +2532,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R43">
         <v>1.2</v>
@@ -2468,7 +2540,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="K44">
+        <v>1.4</v>
       </c>
       <c r="T44">
         <v>1</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85D2B8-B24F-4BEE-99AA-A1255F0398AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B962C6-1414-41E4-AC0F-EDDE5083C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4150" yWindow="0" windowWidth="14400" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -1317,12 +1317,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="E17:L29"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,9 +1588,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="55" t="s">
-        <v>31</v>
-      </c>
+      <c r="F9" s="55"/>
       <c r="G9" s="5"/>
       <c r="H9" s="35"/>
       <c r="I9" s="8"/>
@@ -1768,9 +1766,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="30"/>
-      <c r="F16" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="F16" s="55"/>
       <c r="G16" s="58" t="s">
         <v>31</v>
       </c>
@@ -2014,12 +2010,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I37" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="P5" sqref="P5"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2534,6 +2530,9 @@
       <c r="A43" t="s">
         <v>92</v>
       </c>
+      <c r="E43">
+        <v>1.7</v>
+      </c>
       <c r="R43">
         <v>1.2</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B962C6-1414-41E4-AC0F-EDDE5083C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB99DF-D7EA-48A2-B34F-DBA505C8357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>1,10,</t>
+  </si>
+  <si>
+    <t>1,,</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1009,9 +1015,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,11 +1321,11 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1369,19 +1372,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="8"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="58" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="35"/>
@@ -1559,7 +1562,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="35"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="58" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="26"/>
@@ -1682,12 +1685,10 @@
       <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="52"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="F13" s="59"/>
       <c r="G13" s="5"/>
       <c r="H13" s="35"/>
       <c r="I13" s="6"/>
@@ -1717,7 +1718,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="20"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="6"/>
@@ -1767,9 +1768,7 @@
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="58" t="s">
-        <v>31</v>
-      </c>
+      <c r="G16" s="55"/>
       <c r="H16" s="30"/>
       <c r="I16" s="8"/>
       <c r="J16" s="30"/>
@@ -1894,9 +1893,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="53" t="s">
-        <v>31</v>
-      </c>
+      <c r="F21" s="59"/>
       <c r="G21" s="7"/>
       <c r="H21" s="30"/>
       <c r="I21" s="6"/>
@@ -1925,7 +1922,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="20"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="6"/>
@@ -2011,11 +2008,11 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="P5" sqref="P5"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2196,8 +2193,8 @@
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="N8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -2207,6 +2204,9 @@
       <c r="B9" t="s">
         <v>47</v>
       </c>
+      <c r="S9">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -2220,6 +2220,9 @@
       <c r="A11" t="s">
         <v>64</v>
       </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
       <c r="S11">
         <v>1.2</v>
       </c>
@@ -2238,6 +2241,9 @@
       </c>
       <c r="B13" t="s">
         <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB99DF-D7EA-48A2-B34F-DBA505C8357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F21B68-047F-4399-8EBF-29AD253FE6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,11 +1321,11 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F21B68-047F-4399-8EBF-29AD253FE6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE5BC1-88CC-46DA-AF94-C0EFBC688E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Robot haptique</t>
   </si>
   <si>
-    <t>Schéma cinématique</t>
-  </si>
-  <si>
     <t>Hyperstaticité</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Modélisation cinématique</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -361,6 +355,10 @@
   </si>
   <si>
     <t>1,2,5</t>
+  </si>
+  <si>
+    <t>Modélisation cinématique
+Chaines de solides</t>
   </si>
 </sst>
 </file>
@@ -858,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1037,6 +1035,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,25 +1319,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="4.26953125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1"/>
+    <col min="3" max="13" width="4.26953125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1344,65 +1345,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4">
+      <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="L2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4">
+      <c r="M2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
@@ -1412,25 +1409,22 @@
       <c r="E3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I3" s="28"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1441,25 +1435,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="44"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="39"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="39"/>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
       <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="48"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U4" s="48"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1467,32 +1460,31 @@
         <v>8</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="40"/>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
       <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="S5" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1503,23 +1495,22 @@
         <v>3</v>
       </c>
       <c r="D6" s="43"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="40"/>
-      <c r="T6" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E6" s="20"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="40"/>
+      <c r="S6" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1530,23 +1521,22 @@
         <v>4</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="40"/>
-      <c r="T7" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E7" s="26"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="S7" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1557,29 +1547,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="43"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E8" s="26"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1590,24 +1579,23 @@
         <v>6</v>
       </c>
       <c r="D9" s="43"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="40"/>
-      <c r="T9" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="40"/>
+      <c r="S9" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1616,23 +1604,22 @@
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="40"/>
-      <c r="T10" s="46" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="40"/>
+      <c r="S10" s="46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1641,21 +1628,20 @@
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="40"/>
-      <c r="T11" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E11" s="26"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="40"/>
+      <c r="S11" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1664,21 +1650,20 @@
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="40"/>
-      <c r="T12" s="46" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="40"/>
+      <c r="S12" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -1687,24 +1672,23 @@
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="52"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="40"/>
-      <c r="T13" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E13" s="59"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="40"/>
+      <c r="S13" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -1715,23 +1699,21 @@
         <v>7</v>
       </c>
       <c r="D14" s="43"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="40"/>
-      <c r="T14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E14" s="20"/>
+      <c r="F14" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="40"/>
+      <c r="S14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1740,20 +1722,20 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="40"/>
-      <c r="T15" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E15" s="26"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="40"/>
+      <c r="S15" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -1766,24 +1748,23 @@
       <c r="D16" s="49">
         <v>8</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="40"/>
-      <c r="O16" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" s="46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="G16" s="30"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="40"/>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -1792,21 +1773,20 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="40"/>
-      <c r="T17" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E17" s="20"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="40"/>
+      <c r="S17" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>15</v>
       </c>
@@ -1815,23 +1795,22 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="40"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E18" s="20"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>16</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="49">
         <v>9</v>
@@ -1839,24 +1818,23 @@
       <c r="D19" s="49">
         <v>9</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="40"/>
-      <c r="O19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19" s="46" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="40"/>
+      <c r="N19" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -1865,21 +1843,20 @@
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="40"/>
-      <c r="T20" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E20" s="20"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="40"/>
+      <c r="S20" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -1892,21 +1869,20 @@
       <c r="D21" s="49">
         <v>10</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="40"/>
-      <c r="T21" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E21" s="59"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="40"/>
+      <c r="S21" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>19</v>
       </c>
@@ -1919,20 +1895,18 @@
       <c r="D22" s="49">
         <v>11</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="40"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E22" s="20"/>
+      <c r="F22" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>20</v>
       </c>
@@ -1941,18 +1915,17 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="40"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E23" s="20"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -1961,18 +1934,17 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="40"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="26"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="40"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>22</v>
       </c>
@@ -1981,21 +1953,19 @@
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="41"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2136,7 +2106,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="51" t="s">
         <v>22</v>
@@ -2159,7 +2129,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2167,7 +2137,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2175,15 +2145,15 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -2191,18 +2161,18 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S9">
         <v>1.4</v>
@@ -2210,7 +2180,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2218,7 +2188,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -2229,7 +2199,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2237,18 +2207,18 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2256,7 +2226,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>1.7</v>
@@ -2267,10 +2237,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1.4</v>
@@ -2278,7 +2248,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2289,7 +2259,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18">
         <v>1.9</v>
@@ -2297,7 +2267,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>1.8</v>
@@ -2308,7 +2278,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2316,7 +2286,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2324,7 +2294,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2335,7 +2305,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>1.2</v>
@@ -2346,7 +2316,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2354,7 +2324,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2362,7 +2332,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2370,21 +2340,21 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T28">
         <v>1.2</v>
@@ -2392,10 +2362,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1.4</v>
@@ -2403,15 +2373,15 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T31">
         <v>1.2</v>
@@ -2419,10 +2389,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L32">
         <v>1.2</v>
@@ -2433,7 +2403,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2444,7 +2414,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <v>1.8</v>
@@ -2455,12 +2425,12 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36">
         <v>1.2</v>
@@ -2471,7 +2441,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E37">
         <v>1.2</v>
@@ -2482,7 +2452,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L38">
         <v>1.2</v>
@@ -2493,18 +2463,18 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>1.2</v>
@@ -2515,7 +2485,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41">
         <v>1.4</v>
@@ -2526,7 +2496,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>1.2</v>
@@ -2534,7 +2504,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43">
         <v>1.7</v>
@@ -2545,7 +2515,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K44">
         <v>1.4</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE5BC1-88CC-46DA-AF94-C0EFBC688E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE056F-3027-4E50-95A4-AA1BB05C2228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="14400" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Identification des caractéristiques d'un composant</t>
   </si>
   <si>
-    <t>Dimensionnement d'un actionneur</t>
-  </si>
-  <si>
     <t>Analyse des effets d'un correcteur</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
   </si>
   <si>
     <t>Loi de mouvement (Souhaité - Reél)</t>
-  </si>
-  <si>
-    <t>Loi de mouvement (Simulé - Souhaité)</t>
   </si>
   <si>
     <t>Identif BO</t>
@@ -359,6 +353,15 @@
   <si>
     <t>Modélisation cinématique
 Chaines de solides</t>
+  </si>
+  <si>
+    <t>Modélisation commande Seq</t>
+  </si>
+  <si>
+    <t>Dimensionnement d'un actionneur - Statique</t>
+  </si>
+  <si>
+    <t>Dimensionnement d'un actionneur - Dynamique</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1009,24 +1012,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1035,9 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,7 +1320,7 @@
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,9 +1339,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
       <c r="H1" s="4">
@@ -1368,36 +1365,43 @@
       <c r="M1" s="4">
         <v>11</v>
       </c>
+      <c r="N1" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="C2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>3</v>
-      </c>
       <c r="K2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
@@ -1407,19 +1411,17 @@
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="23"/>
       <c r="M3" s="38"/>
@@ -1429,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="49">
         <v>1</v>
@@ -1437,18 +1439,18 @@
       <c r="D4" s="44"/>
       <c r="E4" s="19"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="32"/>
       <c r="M4" s="39"/>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4" s="48"/>
     </row>
@@ -1457,31 +1459,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="26"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="26"/>
       <c r="M5" s="40"/>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S5" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -1489,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="43">
         <v>3</v>
@@ -1497,17 +1499,17 @@
       <c r="D6" s="43"/>
       <c r="E6" s="20"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="58" t="s">
-        <v>30</v>
-      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="35"/>
       <c r="K6" s="35"/>
       <c r="L6" s="26"/>
       <c r="M6" s="40"/>
       <c r="S6" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -1515,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="49">
         <v>4</v>
@@ -1523,17 +1525,17 @@
       <c r="D7" s="43"/>
       <c r="E7" s="26"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="26"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="40"/>
       <c r="S7" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -1541,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="43">
         <v>5</v>
@@ -1549,23 +1551,23 @@
       <c r="D8" s="43"/>
       <c r="E8" s="26"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="26"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="26"/>
       <c r="M8" s="40"/>
       <c r="N8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S8" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -1573,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="43">
         <v>6</v>
@@ -1581,18 +1583,18 @@
       <c r="D9" s="43"/>
       <c r="E9" s="55"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="26"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="26"/>
       <c r="M9" s="40"/>
       <c r="S9" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -1600,23 +1602,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="26"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="40"/>
       <c r="S10" s="46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -1624,21 +1626,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="26"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="26"/>
       <c r="M11" s="40"/>
       <c r="S11" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -1646,21 +1648,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="26"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="26"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="26"/>
       <c r="M12" s="40"/>
       <c r="S12" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -1668,24 +1670,24 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="57"/>
       <c r="D13" s="52"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="26"/>
       <c r="M13" s="40"/>
       <c r="S13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="47" t="s">
         <v>43</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -1693,24 +1695,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="43">
         <v>7</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
+      <c r="F14" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="26"/>
       <c r="M14" s="40"/>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -1718,21 +1721,21 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="26"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="26"/>
       <c r="M15" s="40"/>
       <c r="S15" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1740,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="49">
         <v>8</v>
@@ -1750,18 +1753,20 @@
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="35"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35" t="s">
+        <v>29</v>
+      </c>
       <c r="L16" s="26"/>
       <c r="M16" s="40"/>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S16" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1769,21 +1774,21 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="26"/>
       <c r="M17" s="40"/>
       <c r="S17" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1791,16 +1796,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="26"/>
       <c r="M18" s="40"/>
@@ -1810,7 +1815,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="49">
         <v>9</v>
@@ -1820,18 +1825,18 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="45"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="26"/>
       <c r="M19" s="40"/>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S19" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1839,21 +1844,21 @@
         <v>17</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="20"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="26"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="26"/>
       <c r="M20" s="40"/>
       <c r="S20" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1861,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="49">
         <v>10</v>
@@ -1869,17 +1874,17 @@
       <c r="D21" s="49">
         <v>10</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="26"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="26"/>
       <c r="M21" s="40"/>
       <c r="S21" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1887,7 +1892,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="49">
         <v>11</v>
@@ -1896,12 +1901,13 @@
         <v>11</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="26"/>
+      <c r="F22" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="26"/>
       <c r="M22" s="40"/>
@@ -1911,16 +1917,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="26"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="26"/>
       <c r="M23" s="40"/>
@@ -1930,16 +1936,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="26"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="26"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="26"/>
       <c r="M24" s="40"/>
@@ -1949,23 +1955,23 @@
         <v>22</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="21"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="33"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="36"/>
       <c r="L25" s="33"/>
       <c r="M25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,75 +2067,75 @@
     </row>
     <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
       <c r="B2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="O2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="P2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="Q2" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="51" t="s">
+      <c r="S2" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="51" t="s">
+      <c r="U2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="V2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="W2" s="51" t="s">
         <v>25</v>
-      </c>
-      <c r="W2" s="51" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2145,15 +2151,15 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -2161,18 +2167,18 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9">
         <v>1.4</v>
@@ -2180,7 +2186,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -2199,7 +2205,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2207,18 +2213,18 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2226,7 +2232,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <v>1.7</v>
@@ -2237,10 +2243,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1.4</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2259,7 +2265,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>1.9</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>1.8</v>
@@ -2278,7 +2284,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2286,7 +2292,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2305,7 +2311,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>1.2</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2340,21 +2346,21 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
       <c r="K27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T28">
         <v>1.2</v>
@@ -2362,10 +2368,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1.4</v>
@@ -2373,15 +2379,15 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T31">
         <v>1.2</v>
@@ -2389,10 +2395,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L32">
         <v>1.2</v>
@@ -2403,7 +2409,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34">
         <v>1.8</v>
@@ -2425,12 +2431,12 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>1.2</v>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>1.2</v>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L38">
         <v>1.2</v>
@@ -2463,18 +2469,18 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>1.2</v>
@@ -2485,7 +2491,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41">
         <v>1.4</v>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1.2</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43">
         <v>1.7</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K44">
         <v>1.4</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE056F-3027-4E50-95A4-AA1BB05C2228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A00E7C-8067-4F2D-B0D7-5C081CC31D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="14400" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -859,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1032,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,11 +1319,11 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1328,7 +1331,7 @@
     <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="4.26953125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="3.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1366,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1731,7 +1734,6 @@
       <c r="H15" s="30"/>
       <c r="I15" s="26"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
       <c r="L15" s="26"/>
       <c r="M15" s="40"/>
       <c r="S15" s="46" t="s">
@@ -1757,9 +1759,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="26"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="35" t="s">
-        <v>29</v>
-      </c>
+      <c r="K16" s="63"/>
       <c r="L16" s="26"/>
       <c r="M16" s="40"/>
       <c r="N16" t="s">
@@ -1784,7 +1784,6 @@
       <c r="H17" s="30"/>
       <c r="I17" s="26"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
       <c r="L17" s="26"/>
       <c r="M17" s="40"/>
       <c r="S17" s="46" t="s">

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A00E7C-8067-4F2D-B0D7-5C081CC31D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31956CB-D042-4285-B3DB-3590E5C0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1318,12 +1318,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31956CB-D042-4285-B3DB-3590E5C0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30D16F-F506-4B29-8084-C856787AE106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,11 +1319,11 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1747,7 +1747,7 @@
       <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="43">
         <v>8</v>
       </c>
       <c r="D16" s="49">

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30D16F-F506-4B29-8084-C856787AE106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1ABB0F-099D-400B-B0D3-B5294518A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -362,6 +362,36 @@
   </si>
   <si>
     <t>Dimensionnement d'un actionneur - Dynamique</t>
+  </si>
+  <si>
+    <t>Mesure de R moteur</t>
+  </si>
+  <si>
+    <t>Mesure de L moteur</t>
+  </si>
+  <si>
+    <t>Mesure de Kc/Ke</t>
+  </si>
+  <si>
+    <t>Mesure de J</t>
+  </si>
+  <si>
+    <t>Mesure de fv</t>
+  </si>
+  <si>
+    <t>Identification moteur BO tempo</t>
+  </si>
+  <si>
+    <t>Identification moteur BO fréq</t>
+  </si>
+  <si>
+    <t>Identification frottement sec</t>
+  </si>
+  <si>
+    <t>Identification frottement visqueux</t>
+  </si>
+  <si>
+    <t>Raideur / Amortissement corde</t>
   </si>
 </sst>
 </file>
@@ -859,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,6 +1051,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1033,8 +1066,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,14 +1349,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,9 +1365,10 @@
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="4.26953125" style="4" customWidth="1"/>
     <col min="14" max="14" width="3.26953125" style="1" customWidth="1"/>
+    <col min="20" max="61" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1372,18 +1406,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="61" t="s">
+    <row r="2" spans="1:38" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1405,8 +1439,43 @@
       <c r="N2" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD2" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF2" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+    </row>
+    <row r="3" spans="1:38" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
@@ -1428,8 +1497,23 @@
       <c r="K3" s="28"/>
       <c r="L3" s="23"/>
       <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1457,7 +1541,7 @@
       </c>
       <c r="U4" s="48"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1489,7 +1573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1515,7 +1599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1541,7 +1625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1573,7 +1657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1600,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1624,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1646,7 +1730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1668,7 +1752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -1693,7 +1777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -1719,7 +1803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1740,7 +1824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -1759,7 +1843,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="26"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="63"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="26"/>
       <c r="M16" s="40"/>
       <c r="N16" t="s">
@@ -1983,11 +2067,11 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="P5" sqref="P5"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1ABB0F-099D-400B-B0D3-B5294518A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309CB2A4-F405-42E8-847C-DE91E13092DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>Mise en œuvre du système</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>Raideur / Amortissement corde</t>
+  </si>
+  <si>
+    <t>Frottement</t>
+  </si>
+  <si>
+    <t>Inertie</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -542,21 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -735,19 +726,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -885,11 +863,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -903,22 +923,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,147 +944,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,26 +1387,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="4.26953125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="61" width="4.1796875" customWidth="1"/>
+    <col min="3" max="14" width="4.26953125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.26953125" style="1" customWidth="1"/>
+    <col min="21" max="62" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1387,675 +1425,708 @@
       <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="4">
         <v>7</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="4">
         <v>8</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L1" s="4">
         <v>9</v>
       </c>
-      <c r="L1" s="4">
+      <c r="M1" s="4">
         <v>10</v>
       </c>
-      <c r="M1" s="4">
+      <c r="N1" s="4">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="62" t="s">
+    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="Y2" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Z2" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="Z2" s="64" t="s">
+      <c r="AA2" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="AA2" s="64" t="s">
+      <c r="AB2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="AB2" s="64" t="s">
+      <c r="AC2" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="AC2" s="64" t="s">
+      <c r="AD2" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="AD2" s="64" t="s">
+      <c r="AE2" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="64" t="s">
+      <c r="AF2" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" s="64" t="s">
+      <c r="AG2" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" s="64" t="s">
+      <c r="AH2" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-    </row>
-    <row r="3" spans="1:38" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="42" t="s">
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+    </row>
+    <row r="3" spans="1:39" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="38"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="H3" s="61"/>
+      <c r="I3" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="32"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="42">
         <v>1</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="39"/>
-      <c r="S4" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="33"/>
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="48"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="V4" s="41"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="40"/>
-      <c r="N5" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="34"/>
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="T5" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="37">
         <v>3</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="56" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="40"/>
-      <c r="S6" s="46" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="34"/>
+      <c r="T6" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="26" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="S7" s="46" t="s">
+      <c r="N7" s="34"/>
+      <c r="T7" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="37">
         <v>5</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1" t="s">
+      <c r="I8" s="69"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="T8" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="37">
         <v>6</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="40"/>
-      <c r="S9" s="46" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="34"/>
+      <c r="T9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
+      <c r="G10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="40"/>
-      <c r="S10" s="46" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="34"/>
+      <c r="T10" s="39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="40"/>
-      <c r="S11" s="46" t="s">
+      <c r="G11" s="61"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="34"/>
+      <c r="T11" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="40"/>
-      <c r="S12" s="46" t="s">
+      <c r="G12" s="61"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="34"/>
+      <c r="T12" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="57"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="40"/>
-      <c r="S13" s="46" t="s">
+      <c r="G13" s="61"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="34"/>
+      <c r="T13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="47" t="s">
+      <c r="U13" s="40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="37">
         <v>7</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="56" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="40"/>
-      <c r="S14" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="34"/>
+      <c r="T14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="35"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="40"/>
-      <c r="S15" s="46" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="29"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="34"/>
+      <c r="T15" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="37">
         <v>8</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="42">
         <v>8</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="40"/>
-      <c r="N16" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="34"/>
+      <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="46" t="s">
+      <c r="T16" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="35"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="40"/>
-      <c r="S17" s="46" t="s">
+      <c r="G17" s="61"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="29"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="34"/>
+      <c r="T17" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="42">
         <v>9</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="42">
         <v>9</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="40"/>
-      <c r="N19" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="34"/>
+      <c r="O19" t="s">
         <v>91</v>
       </c>
-      <c r="S19" s="46" t="s">
+      <c r="T19" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="40"/>
-      <c r="S20" s="46" t="s">
+      <c r="G20" s="61"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="34"/>
+      <c r="T20" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="42">
         <v>10</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="42">
         <v>10</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="40"/>
-      <c r="S21" s="46" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="34"/>
+      <c r="T21" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="42">
         <v>11</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="42">
         <v>11</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="56" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
+      <c r="G22" s="61"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
+      <c r="G23" s="61"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="41"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2149,70 +2220,70 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="W2" s="44" t="s">
         <v>25</v>
       </c>
     </row>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309CB2A4-F405-42E8-847C-DE91E13092DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -403,8 +402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,13 +421,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -909,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -965,21 +957,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -998,9 +981,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1020,8 +1000,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1056,6 +1036,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1068,43 +1075,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,27 +1394,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="4.26953125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.26953125" style="1" customWidth="1"/>
-    <col min="21" max="62" width="4.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="4.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="1" customWidth="1"/>
+    <col min="21" max="62" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1425,9 +1433,10 @@
       <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="J1" s="4">
+      <c r="I1" s="76">
         <v>7</v>
       </c>
+      <c r="J1" s="76"/>
       <c r="K1" s="4">
         <v>8</v>
       </c>
@@ -1444,425 +1453,427 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="1:39" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="63" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="63" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="64"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>107</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" s="53" t="s">
+      <c r="AC2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AE2" s="53" t="s">
+      <c r="AE2" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" s="53" t="s">
+      <c r="AF2" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="AG2" s="53" t="s">
+      <c r="AG2" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="AH2" s="53" t="s">
+      <c r="AH2" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-    </row>
-    <row r="3" spans="1:39" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="36" t="s">
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+    </row>
+    <row r="3" spans="1:39" s="66" customFormat="1" ht="89.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="32"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="38">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="17"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="33"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="29"/>
       <c r="T4" t="s">
         <v>35</v>
       </c>
       <c r="U4" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="41"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="V4" s="37"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="34"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="30"/>
       <c r="O5" t="s">
         <v>31</v>
       </c>
       <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>3</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="18"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="68" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="34"/>
-      <c r="T6" s="39" t="s">
+      <c r="J6" s="56"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="30"/>
+      <c r="T6" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="38">
         <v>4</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="23" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="T7" s="39" t="s">
+      <c r="N7" s="30"/>
+      <c r="T7" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="33">
         <v>5</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="65" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="34"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="33">
         <v>6</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="34"/>
-      <c r="T9" s="39" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="30"/>
+      <c r="T9" s="35" t="s">
         <v>40</v>
       </c>
       <c r="U9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="34"/>
-      <c r="T10" s="39" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="30"/>
+      <c r="T10" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="34"/>
-      <c r="T11" s="39" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="30"/>
+      <c r="T11" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="34"/>
-      <c r="T12" s="39" t="s">
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="30"/>
+      <c r="T12" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="34"/>
-      <c r="T13" s="39" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="30"/>
+      <c r="T13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="40" t="s">
+      <c r="U13" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="33">
         <v>7</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="68" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="34"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="30"/>
       <c r="T14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1870,51 +1881,51 @@
         <v>17</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="29"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="34"/>
-      <c r="T15" s="39" t="s">
+      <c r="K15" s="26"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="30"/>
+      <c r="T15" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <v>8</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="38">
         <v>8</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="34"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="30"/>
       <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -1925,18 +1936,18 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="29"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="34"/>
-      <c r="T17" s="39" t="s">
+      <c r="K17" s="26"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="30"/>
+      <c r="T17" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -1947,122 +1958,122 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="38">
         <v>9</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="38">
         <v>9</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="34"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="30"/>
       <c r="O19" t="s">
         <v>91</v>
       </c>
-      <c r="T19" s="39" t="s">
+      <c r="T19" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="18"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="34"/>
-      <c r="T20" s="39" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="30"/>
+      <c r="T20" s="35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="38">
         <v>10</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="38">
         <v>10</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="34"/>
-      <c r="T21" s="39" t="s">
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="30"/>
+      <c r="T21" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="38">
         <v>11</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="38">
         <v>11</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="30"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2073,16 +2084,16 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="34"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2091,42 +2102,43 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="34"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="35"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2134,7 +2146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -2145,13 +2157,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2219,75 +2231,75 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:23" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2346,7 +2358,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2474,7 +2486,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2539,7 +2551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2583,12 +2595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -2643,7 +2655,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309CB2A4-F405-42E8-847C-DE91E13092DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A527D00-B91B-436F-B1DE-8FEFEB691A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="650" windowWidth="17810" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -757,32 +757,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -905,11 +883,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -977,37 +981,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,70 +1027,94 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1390,11 +1400,11 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1445,24 +1455,24 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="63" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="24" t="s">
         <v>106</v>
       </c>
@@ -1472,90 +1482,90 @@
       <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" s="53" t="s">
+      <c r="AC2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AE2" s="53" t="s">
+      <c r="AE2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" s="53" t="s">
+      <c r="AF2" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="AG2" s="53" t="s">
+      <c r="AG2" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="AH2" s="53" t="s">
+      <c r="AH2" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
     </row>
     <row r="3" spans="1:39" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="32"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
+      <c r="N3" s="26"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
@@ -1564,58 +1574,58 @@
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="63">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="17"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="33"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="T4" t="s">
         <v>35</v>
       </c>
       <c r="U4" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="41"/>
+      <c r="V4" s="35"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="34"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="O5" t="s">
         <v>31</v>
       </c>
       <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1623,26 +1633,26 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="31">
         <v>3</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="18"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="68" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="34"/>
-      <c r="T6" s="39" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="T6" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1650,26 +1660,26 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="36">
         <v>4</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="23"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="23" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="T7" s="39" t="s">
+      <c r="N7" s="28"/>
+      <c r="T7" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1677,32 +1687,32 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="31">
         <v>5</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="23"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="65" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="34"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1710,24 +1720,24 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="31">
         <v>6</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="34"/>
-      <c r="T9" s="39" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="T9" s="33" t="s">
         <v>40</v>
       </c>
       <c r="U9" t="s">
@@ -1741,21 +1751,21 @@
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="34"/>
-      <c r="T10" s="39" t="s">
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="T10" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1766,19 +1776,19 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="23"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="34"/>
-      <c r="T11" s="39" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="T11" s="33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1789,19 +1799,19 @@
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="23"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="34"/>
-      <c r="T12" s="39" t="s">
+      <c r="J12" s="50"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="T12" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1812,22 +1822,22 @@
       <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="34"/>
-      <c r="T13" s="39" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="T13" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="40" t="s">
+      <c r="U13" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1835,29 +1845,29 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="31">
         <v>7</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="68" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="34"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="T14" t="s">
         <v>44</v>
       </c>
@@ -1873,14 +1883,15 @@
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="29"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="34"/>
-      <c r="T15" s="39" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="T15" s="33" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1888,29 +1899,29 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="31">
         <v>8</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>8</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="34"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
       <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1925,14 +1936,15 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="29"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="34"/>
-      <c r="T17" s="39" t="s">
+      <c r="J17" s="50"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="T17" s="33" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1947,42 +1959,42 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="34"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="36">
         <v>9</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="36">
         <v>9</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="7"/>
       <c r="J19" s="70"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="34"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
       <c r="O19" t="s">
         <v>91</v>
       </c>
-      <c r="T19" s="39" t="s">
+      <c r="T19" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1990,22 +2002,22 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="34"/>
-      <c r="T20" s="39" t="s">
+      <c r="J20" s="50"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="T20" s="33" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2016,23 +2028,23 @@
       <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="36">
         <v>10</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="36">
         <v>10</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="34"/>
-      <c r="T21" s="39" t="s">
+      <c r="J21" s="50"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="T21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2040,27 +2052,27 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="36">
         <v>11</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="36">
         <v>11</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="34"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
@@ -2073,14 +2085,14 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="34"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
@@ -2093,14 +2105,14 @@
       <c r="D24" s="18"/>
       <c r="E24" s="23"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="34"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
@@ -2109,18 +2121,18 @@
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="35"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2220,70 +2232,70 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="38" t="s">
         <v>25</v>
       </c>
     </row>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A527D00-B91B-436F-B1DE-8FEFEB691A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98090502-4A3B-4FF9-982A-ADD9842D9566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="650" windowWidth="17810" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17810" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Analyse des effets d'un correcteur</t>
   </si>
   <si>
-    <t>Choix d'un correcteur</t>
-  </si>
-  <si>
     <t>BGR 300</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>Inertie</t>
+  </si>
+  <si>
+    <t>Choix et synthèse d'un correcteur</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,6 +1066,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1083,39 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,12 +1396,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4:L25"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1455,68 +1452,68 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="59"/>
+      <c r="C2" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="69"/>
       <c r="E2" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="57"/>
+        <v>103</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="67"/>
       <c r="H2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="61"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y2" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="AA2" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AB2" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AC2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" s="46" t="s">
+      <c r="AD2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AE2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AE2" s="46" t="s">
+      <c r="AF2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AG2" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AH2" s="46" t="s">
         <v>116</v>
-      </c>
-      <c r="AH2" s="46" t="s">
-        <v>117</v>
       </c>
       <c r="AI2" s="46"/>
       <c r="AJ2" s="46"/>
@@ -1525,30 +1522,28 @@
       <c r="AM2" s="46"/>
     </row>
     <row r="3" spans="1:39" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" s="51"/>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
       <c r="M3" s="21"/>
       <c r="N3" s="26"/>
       <c r="Y3" s="46"/>
@@ -1572,27 +1567,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="63">
+        <v>5</v>
+      </c>
+      <c r="C4" s="56">
         <v>1</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="17"/>
       <c r="F4" s="11"/>
       <c r="G4" s="48"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="48"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="66"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="35"/>
     </row>
@@ -1601,13 +1596,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="40"/>
@@ -1620,13 +1615,13 @@
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
@@ -1634,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="31">
         <v>3</v>
@@ -1645,7 +1640,7 @@
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="53"/>
       <c r="K6" s="5"/>
@@ -1653,7 +1648,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="T6" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
@@ -1661,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="36">
         <v>4</v>
@@ -1676,11 +1671,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" s="28"/>
       <c r="T7" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
@@ -1688,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="31">
         <v>5</v>
@@ -1698,7 +1693,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="49"/>
       <c r="H8" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="50"/>
@@ -1707,13 +1702,13 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
@@ -1721,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="31">
         <v>6</v>
@@ -1738,10 +1733,10 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="T9" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
@@ -1749,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="18"/>
@@ -1761,12 +1756,12 @@
       <c r="J10" s="50"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
       <c r="T10" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
@@ -1774,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -1789,7 +1784,7 @@
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
       <c r="T11" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
@@ -1797,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -1812,7 +1807,7 @@
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
       <c r="T12" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
@@ -1820,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="39"/>
@@ -1835,10 +1830,10 @@
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="T13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">
@@ -1846,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="31">
         <v>7</v>
@@ -1854,22 +1849,22 @@
       <c r="D14" s="31"/>
       <c r="E14" s="18"/>
       <c r="F14" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="49"/>
       <c r="I14" s="7"/>
       <c r="J14" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.35">
@@ -1877,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="23"/>
@@ -1892,7 +1887,7 @@
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="T15" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.35">
@@ -1900,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="31">
         <v>8</v>
@@ -1915,14 +1910,14 @@
       <c r="I16" s="7"/>
       <c r="J16" s="50"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="71"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
@@ -1930,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1945,7 +1940,7 @@
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="T17" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
@@ -1953,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1973,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="36">
         <v>9</v>
@@ -1986,16 +1981,16 @@
       <c r="G19" s="50"/>
       <c r="H19" s="49"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="70"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
@@ -2003,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -2018,7 +2013,7 @@
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="T20" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -2026,7 +2021,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="36">
         <v>10</v>
@@ -2045,7 +2040,7 @@
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="T21" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
@@ -2053,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="36">
         <v>11</v>
@@ -2063,7 +2058,7 @@
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="49"/>
@@ -2079,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -2099,7 +2094,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2119,17 +2114,17 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
       <c r="G25" s="51"/>
-      <c r="H25" s="67"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="8"/>
       <c r="J25" s="51"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="9"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
@@ -2233,75 +2228,75 @@
     </row>
     <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
       <c r="B2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="P2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="Q2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="38" t="s">
+      <c r="U2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="V2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="W2" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="W2" s="38" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2309,7 +2304,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2317,15 +2312,15 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -2333,18 +2328,18 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9">
         <v>1.4</v>
@@ -2352,7 +2347,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2360,7 +2355,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -2371,7 +2366,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2379,18 +2374,18 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2398,7 +2393,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>1.7</v>
@@ -2409,10 +2404,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1.4</v>
@@ -2420,7 +2415,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2431,7 +2426,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <v>1.9</v>
@@ -2439,7 +2434,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>1.8</v>
@@ -2450,7 +2445,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2458,7 +2453,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2466,7 +2461,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2477,7 +2472,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>1.2</v>
@@ -2488,7 +2483,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2496,7 +2491,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2504,7 +2499,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2512,21 +2507,21 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T28">
         <v>1.2</v>
@@ -2534,10 +2529,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1.4</v>
@@ -2545,15 +2540,15 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T31">
         <v>1.2</v>
@@ -2561,10 +2556,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32">
         <v>1.2</v>
@@ -2575,7 +2570,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2586,7 +2581,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>1.8</v>
@@ -2597,12 +2592,12 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>1.2</v>
@@ -2613,7 +2608,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <v>1.2</v>
@@ -2624,7 +2619,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L38">
         <v>1.2</v>
@@ -2635,18 +2630,18 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>1.2</v>
@@ -2657,7 +2652,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41">
         <v>1.4</v>
@@ -2668,7 +2663,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>1.2</v>
@@ -2676,7 +2671,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>1.7</v>
@@ -2687,7 +2682,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44">
         <v>1.4</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98090502-4A3B-4FF9-982A-ADD9842D9566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17810" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17805" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -403,7 +402,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -756,17 +755,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -853,37 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -907,6 +864,69 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -981,8 +1001,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -991,9 +1011,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,19 +1044,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1052,49 +1066,31 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -1102,16 +1098,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1393,27 +1413,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="4.26953125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.26953125" style="1" customWidth="1"/>
-    <col min="21" max="62" width="4.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6" style="4" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" customWidth="1"/>
+    <col min="21" max="62" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1451,25 +1471,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="68" t="s">
+    <row r="2" spans="1:39" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="71"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="24" t="s">
         <v>105</v>
       </c>
@@ -1479,395 +1499,395 @@
       <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="57" t="s">
         <v>119</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="Z2" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AF2" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-    </row>
-    <row r="3" spans="1:39" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="61" t="s">
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+    </row>
+    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="62" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="71" t="s">
         <v>118</v>
       </c>
       <c r="M3" s="21"/>
-      <c r="N3" s="26"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="N3" s="25"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="52">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="17"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="T4" t="s">
         <v>34</v>
       </c>
       <c r="U4" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="35"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="V4" s="34"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>3</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="18"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="54" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="T6" s="33" t="s">
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="T6" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>4</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="23"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="T7" s="33" t="s">
+      <c r="N7" s="27"/>
+      <c r="T7" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="23"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T8" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>6</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="T9" s="33" t="s">
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="T9" s="32" t="s">
         <v>39</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="49"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="T10" s="33" t="s">
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="T10" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="23"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="T11" s="33" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="T11" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="23"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="T12" s="33" t="s">
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="T12" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="T13" s="33" t="s">
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="T13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="34" t="s">
+      <c r="U13" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>7</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="54" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="T14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1878,49 +1898,49 @@
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="T15" s="33" t="s">
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="T15" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>8</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>8</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -1931,19 +1951,19 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="49"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="T17" s="33" t="s">
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="T17" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -1954,122 +1974,122 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>9</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <v>9</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="49"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
       <c r="O19" t="s">
         <v>90</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="18"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="T20" s="33" t="s">
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="T20" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>10</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <v>10</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="T21" s="33" t="s">
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="T21" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>11</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <v>11</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="49"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2080,16 +2100,16 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2100,34 +2120,34 @@
       <c r="D24" s="18"/>
       <c r="E24" s="23"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="65"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="64"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2141,7 +2161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B983655-ED22-47C5-98DE-9BEF3D95FDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -2152,13 +2172,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2226,75 +2246,75 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="1:23" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2302,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2310,7 +2330,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2318,7 +2338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2326,7 +2346,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2334,7 +2354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -2353,7 +2373,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2364,7 +2384,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2372,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2402,7 +2422,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2443,7 +2463,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2451,7 +2471,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2459,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2470,7 +2490,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2481,7 +2501,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2489,7 +2509,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2505,7 +2525,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2516,7 +2536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2527,7 +2547,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2538,7 +2558,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2546,7 +2566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2554,7 +2574,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2568,7 +2588,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2579,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2590,12 +2610,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2606,7 +2626,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2628,7 +2648,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -2639,7 +2659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2650,7 +2670,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2661,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D11C4-0081-4583-BF62-E16006F7BBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17805" windowHeight="9435"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -402,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,9 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1092,6 +1079,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1104,35 +1121,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,27 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="6" style="4" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" customWidth="1"/>
-    <col min="21" max="62" width="4.140625" customWidth="1"/>
+    <col min="21" max="62" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1471,423 +1461,423 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="60" t="s">
+    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="56" t="s">
         <v>119</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-    </row>
-    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="55" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+    </row>
+    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="25"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="M3" s="20"/>
+      <c r="N3" s="24"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>1</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="17"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
       <c r="T4" t="s">
         <v>34</v>
       </c>
       <c r="U4" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="34"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="V4" s="33"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="67"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="63"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="18"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="51" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="63"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="T6" s="32" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="T6" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>4</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="63"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="T7" s="32" t="s">
+      <c r="N7" s="26"/>
+      <c r="T7" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="51"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="63"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="63"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="T9" s="32" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="T9" s="31" t="s">
         <v>39</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="67"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="63"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="T10" s="32" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="T10" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="63"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="T11" s="32" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="T11" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="67"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="T12" s="32" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="T12" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="42"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="67"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="63"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="T13" s="32" t="s">
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="T13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="33" t="s">
+      <c r="U13" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>7</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="67"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="50" t="s">
+      <c r="K14" s="58"/>
+      <c r="L14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
       <c r="T14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1895,52 +1885,52 @@
         <v>16</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="67"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="63"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="T15" s="32" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="T15" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>8</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>8</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="67"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="T16" s="32" t="s">
+      <c r="T16" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -1951,19 +1941,19 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="67"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="63"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="T17" s="32" t="s">
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="T17" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -1974,122 +1964,122 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="67"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="63"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>9</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>9</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="67"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="63"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
       <c r="O19" t="s">
         <v>90</v>
       </c>
-      <c r="T19" s="32" t="s">
+      <c r="T19" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="18"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="67"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="63"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="T20" s="32" t="s">
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="T20" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>10</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>10</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="67"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="63"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="T21" s="32" t="s">
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="T21" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>11</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>11</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="67"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="63"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2100,16 +2090,16 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="67"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="63"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2118,36 +2108,36 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="63"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="69"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="64"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2161,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -2172,13 +2162,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2246,75 +2236,75 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="97.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2322,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2330,7 +2320,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2346,7 +2336,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2354,7 +2344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2355,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -2373,7 +2363,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2384,7 +2374,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2392,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2403,7 +2393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2411,7 +2401,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2422,7 +2412,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2433,7 +2423,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2444,7 +2434,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2452,7 +2442,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2453,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2471,7 +2461,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2479,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2490,7 +2480,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2501,7 +2491,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2509,7 +2499,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2517,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2525,7 +2515,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2536,7 +2526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2547,7 +2537,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2558,7 +2548,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2566,7 +2556,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2574,7 +2564,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2588,7 +2578,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2599,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2610,12 +2600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2626,7 +2616,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2637,7 +2627,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2648,7 +2638,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -2659,7 +2649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2670,7 +2660,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2681,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2689,7 +2679,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2700,7 +2690,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D11C4-0081-4583-BF62-E16006F7BBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E6341-1EF6-48DD-BFBE-81F6846406E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
-  <si>
-    <t>Mise en œuvre du système</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -387,13 +384,22 @@
   </si>
   <si>
     <t>Choix et synthèse d'un correcteur</t>
+  </si>
+  <si>
+    <t>Mise en service du système</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>* : à vérifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +442,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1061,9 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1109,6 +1120,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1121,8 +1135,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,14 +1418,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1463,67 +1477,67 @@
     </row>
     <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="68"/>
       <c r="H2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="69" t="s">
         <v>2</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>3</v>
       </c>
       <c r="J2" s="70"/>
       <c r="K2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Z2" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AA2" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AG2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AH2" s="43" t="s">
         <v>115</v>
-      </c>
-      <c r="AH2" s="43" t="s">
-        <v>116</v>
       </c>
       <c r="AI2" s="43"/>
       <c r="AJ2" s="43"/>
@@ -1532,27 +1546,27 @@
       <c r="AM2" s="43"/>
     </row>
     <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="65" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>118</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="24"/>
@@ -1577,27 +1591,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="17"/>
       <c r="F4" s="11"/>
       <c r="G4" s="45"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="53"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V4" s="33"/>
     </row>
@@ -1606,32 +1620,32 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="38"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="62"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="58"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="6"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
@@ -1639,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="29">
         <v>3</v>
@@ -1648,17 +1662,17 @@
       <c r="E6" s="18"/>
       <c r="F6" s="5"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="62"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="49"/>
-      <c r="K6" s="58"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="6"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="T6" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
@@ -1666,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="34">
         <v>4</v>
@@ -1675,17 +1689,17 @@
       <c r="E7" s="22"/>
       <c r="F7" s="5"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="62"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="58"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="6"/>
       <c r="M7" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="26"/>
       <c r="T7" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
@@ -1693,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="29">
         <v>5</v>
@@ -1703,22 +1717,22 @@
       <c r="F8" s="5"/>
       <c r="G8" s="46"/>
       <c r="H8" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="58"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="6"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
@@ -1726,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="29">
         <v>6</v>
@@ -1735,18 +1749,18 @@
       <c r="E9" s="40"/>
       <c r="F9" s="5"/>
       <c r="G9" s="46"/>
-      <c r="H9" s="62"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="58"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="6"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="T9" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
@@ -1754,24 +1768,24 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="5"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="58"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="T10" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
@@ -1779,22 +1793,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="22"/>
       <c r="F11" s="5"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="58"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="6"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="T11" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
@@ -1802,22 +1816,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="22"/>
       <c r="F12" s="5"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="58"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="6"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="T12" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
@@ -1825,25 +1839,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="37"/>
       <c r="E13" s="41"/>
       <c r="F13" s="5"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="6"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="T13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="U13" s="32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">
@@ -1851,30 +1865,30 @@
         <v>11</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="29">
         <v>7</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="63" t="s">
-        <v>28</v>
+      <c r="F14" s="62" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="47"/>
-      <c r="H14" s="62"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="7"/>
       <c r="J14" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="58"/>
+        <v>27</v>
+      </c>
+      <c r="K14" s="57"/>
       <c r="L14" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.35">
@@ -1882,22 +1896,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="5"/>
       <c r="G15" s="47"/>
-      <c r="H15" s="62"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="58"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="6"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="T15" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.35">
@@ -1905,7 +1919,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="29">
         <v>8</v>
@@ -1916,18 +1930,18 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="46"/>
-      <c r="H16" s="62"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="55"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
@@ -1935,22 +1949,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
       <c r="G17" s="47"/>
-      <c r="H17" s="62"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="58"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="6"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="T17" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
@@ -1958,17 +1972,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="7"/>
       <c r="G18" s="46"/>
-      <c r="H18" s="62"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="58"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="6"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -1978,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="34">
         <v>9</v>
@@ -1989,18 +2003,18 @@
       <c r="E19" s="22"/>
       <c r="F19" s="38"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="62"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="6"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
@@ -2008,22 +2022,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="18"/>
       <c r="F20" s="7"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="62"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="58"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="6"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
       <c r="T20" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -2031,7 +2045,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="34">
         <v>10</v>
@@ -2042,15 +2056,15 @@
       <c r="E21" s="41"/>
       <c r="F21" s="7"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="62"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="6"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="T21" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
@@ -2058,7 +2072,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="34">
         <v>11</v>
@@ -2067,14 +2081,14 @@
         <v>11</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="63" t="s">
-        <v>28</v>
+      <c r="F22" s="62" t="s">
+        <v>27</v>
       </c>
       <c r="G22" s="47"/>
-      <c r="H22" s="62"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="6"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
@@ -2084,17 +2098,17 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="7"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="62"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="58"/>
+      <c r="K23" s="57"/>
       <c r="L23" s="6"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -2104,17 +2118,17 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="22"/>
       <c r="F24" s="5"/>
       <c r="G24" s="46"/>
-      <c r="H24" s="62"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="58"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="6"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
@@ -2124,20 +2138,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="71"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="8"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="64"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="59"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="9"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C26" s="71" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2238,75 +2257,75 @@
     </row>
     <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="I2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="J2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="P2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="36" t="s">
+      <c r="S2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="36" t="s">
+      <c r="U2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>23</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2314,7 +2333,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -2322,15 +2341,15 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -2338,18 +2357,18 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9">
         <v>1.4</v>
@@ -2357,7 +2376,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>1.2</v>
@@ -2365,7 +2384,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -2376,7 +2395,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2384,18 +2403,18 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -2403,7 +2422,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>1.7</v>
@@ -2414,10 +2433,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1.4</v>
@@ -2425,7 +2444,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2436,7 +2455,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18">
         <v>1.9</v>
@@ -2444,7 +2463,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>1.8</v>
@@ -2455,7 +2474,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2463,7 +2482,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2471,7 +2490,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2482,7 +2501,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>1.2</v>
@@ -2493,7 +2512,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2501,7 +2520,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2509,7 +2528,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2517,21 +2536,21 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
       <c r="K27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T28">
         <v>1.2</v>
@@ -2539,10 +2558,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1.4</v>
@@ -2550,15 +2569,15 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T31">
         <v>1.2</v>
@@ -2566,10 +2585,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L32">
         <v>1.2</v>
@@ -2580,7 +2599,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2591,7 +2610,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>1.8</v>
@@ -2602,12 +2621,12 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36">
         <v>1.2</v>
@@ -2618,7 +2637,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>1.2</v>
@@ -2629,7 +2648,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38">
         <v>1.2</v>
@@ -2640,18 +2659,18 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>1.2</v>
@@ -2662,7 +2681,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41">
         <v>1.4</v>
@@ -2673,7 +2692,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>1.2</v>
@@ -2681,7 +2700,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>1.7</v>
@@ -2692,7 +2711,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44">
         <v>1.4</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E6341-1EF6-48DD-BFBE-81F6846406E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC77339-95E2-4D07-A365-D62EF50C6405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -1123,6 +1123,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1134,9 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,11 +1421,11 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1476,24 +1476,24 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="23" t="s">
         <v>104</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="29">
         <v>4</v>
       </c>
       <c r="D7" s="29"/>
@@ -2154,7 +2154,7 @@
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="67" t="s">
         <v>121</v>
       </c>
     </row>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC77339-95E2-4D07-A365-D62EF50C6405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF266C-0C5A-461B-A11D-C48856CD39E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -393,13 +393,16 @@
   </si>
   <si>
     <t>* : à vérifier</t>
+  </si>
+  <si>
+    <t>TEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,15 +1423,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
@@ -1437,7 +1440,7 @@
     <col min="21" max="62" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15" thickBot="1">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1">
       <c r="C2" s="70" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1548,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43"/>
     </row>
-    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1">
       <c r="C3" s="53" t="s">
         <v>119</v>
       </c>
@@ -1567,6 +1570,9 @@
       </c>
       <c r="J3" s="65" t="s">
         <v>117</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="24"/>
@@ -1586,7 +1592,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1615,7 +1621,7 @@
       </c>
       <c r="V4" s="33"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1693,7 +1699,9 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M7" s="26" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1722,7 +1730,9 @@
       <c r="I8" s="50"/>
       <c r="J8" s="6"/>
       <c r="K8" s="57"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="1" t="s">
@@ -1735,7 +1745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1753,7 +1763,9 @@
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
       <c r="K9" s="57"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="T9" s="31" t="s">
@@ -1763,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1850,7 +1862,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
       <c r="K13" s="57"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="T13" s="31" t="s">
@@ -1860,7 +1874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -1891,7 +1905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -1944,7 +1958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -1960,14 +1974,16 @@
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
       <c r="K17" s="57"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="T17" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -1987,7 +2003,7 @@
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2017,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2033,14 +2049,16 @@
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
       <c r="K20" s="57"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
       <c r="T20" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2089,11 +2107,13 @@
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2113,7 +2133,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2133,7 +2153,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="15" thickBot="1">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2153,7 +2173,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20">
       <c r="C26" s="67" t="s">
         <v>121</v>
       </c>
@@ -2181,13 +2201,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="93">
       <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2331,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2339,7 +2359,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2347,7 +2367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2355,7 +2375,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2363,7 +2383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2374,7 +2394,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2382,7 +2402,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2393,7 +2413,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2412,7 +2432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2420,7 +2440,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2431,7 +2451,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2442,7 +2462,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2472,7 +2492,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2480,7 +2500,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2488,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2499,7 +2519,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2518,7 +2538,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2526,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2534,7 +2554,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2556,7 +2576,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2567,7 +2587,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2575,7 +2595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2619,12 +2639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2635,7 +2655,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -2646,7 +2666,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2657,7 +2677,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2668,7 +2688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2679,7 +2699,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2690,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2698,7 +2718,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2709,7 +2729,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>88</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF266C-0C5A-461B-A11D-C48856CD39E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CCC241-6B21-4C75-9B4F-67705A89CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -1424,11 +1424,11 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1912,8 +1912,8 @@
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="22"/>
       <c r="F15" s="5"/>
       <c r="G15" s="47"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CCC241-6B21-4C75-9B4F-67705A89CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72284974-4C73-4D82-84C2-6033839CFBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -940,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1140,6 +1146,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,15 +1432,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I13" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
@@ -1440,7 +1449,7 @@
     <col min="21" max="62" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1">
+    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="70" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1557,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43"/>
     </row>
-    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="53" t="s">
         <v>119</v>
       </c>
@@ -1592,7 +1601,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1621,7 +1630,7 @@
       </c>
       <c r="V4" s="33"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1699,7 +1708,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="26" t="s">
@@ -1710,7 +1719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1730,7 +1739,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="6"/>
       <c r="K8" s="57"/>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="26"/>
@@ -1745,7 +1754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1763,7 +1772,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
       <c r="K9" s="57"/>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="72" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="26"/>
@@ -1775,7 +1784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1791,7 +1800,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
       <c r="K10" s="57"/>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="72" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="26"/>
@@ -1800,7 +1809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -1983,7 +1992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2003,7 +2012,7 @@
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2113,7 +2122,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2133,7 +2142,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2153,7 +2162,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2173,7 +2182,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C26" s="67" t="s">
         <v>121</v>
       </c>
@@ -2201,13 +2210,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="93">
+    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2351,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2538,7 +2547,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2554,7 +2563,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2603,7 +2612,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2628,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2639,12 +2648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2688,7 +2697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>88</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72284974-4C73-4D82-84C2-6033839CFBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D446E-C87E-47AB-982C-FC77A1293E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -508,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -942,11 +942,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1135,6 +1150,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1147,7 +1165,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1432,12 +1450,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I13" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,24 +1506,24 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="23" t="s">
         <v>104</v>
       </c>
@@ -1708,7 +1726,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="68" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="26" t="s">
@@ -1733,13 +1751,11 @@
       <c r="E8" s="22"/>
       <c r="F8" s="5"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="49" t="s">
-        <v>27</v>
-      </c>
+      <c r="H8" s="73"/>
       <c r="I8" s="50"/>
       <c r="J8" s="6"/>
       <c r="K8" s="57"/>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="68" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="26"/>
@@ -1772,7 +1788,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
       <c r="K9" s="57"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="68" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="26"/>
@@ -1800,7 +1816,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
       <c r="K10" s="57"/>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="68" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="26"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D446E-C87E-47AB-982C-FC77A1293E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49282D05-2A32-48D9-BA48-A86F83D95468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -396,6 +407,18 @@
   </si>
   <si>
     <t>TEC</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Sujet 4H</t>
+  </si>
+  <si>
+    <t>TO DO ?</t>
+  </si>
+  <si>
+    <t>:(</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1176,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1164,9 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,14 +1471,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1464,10 +1487,11 @@
     <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="6" style="4" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" customWidth="1"/>
-    <col min="21" max="62" width="4.1796875" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="1" customWidth="1"/>
+    <col min="22" max="63" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1504,26 +1528,29 @@
       <c r="O1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="71" t="s">
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23" t="s">
         <v>104</v>
       </c>
@@ -1539,43 +1566,44 @@
       <c r="O2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="P2" s="3"/>
+      <c r="Z2" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AA2" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AG2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AH2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AI2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" s="43"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
       <c r="AM2" s="43"/>
-    </row>
-    <row r="3" spans="1:39" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="53" t="s">
         <v>119</v>
       </c>
@@ -1603,7 +1631,6 @@
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="24"/>
-      <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
       <c r="AA3" s="43"/>
       <c r="AB3" s="43"/>
@@ -1618,8 +1645,9 @@
       <c r="AK3" s="43"/>
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AN3" s="43"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1640,15 +1668,18 @@
       <c r="L4" s="52"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
-      <c r="T4" t="s">
+      <c r="P4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="33"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1675,13 +1706,16 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="U5" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1704,11 +1738,14 @@
       <c r="L6" s="6"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="T6" s="31" t="s">
+      <c r="P6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1733,11 +1770,14 @@
         <v>27</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="T7" s="31" t="s">
+      <c r="P7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1751,7 +1791,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="5"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="50"/>
       <c r="J8" s="6"/>
       <c r="K8" s="57"/>
@@ -1763,14 +1803,17 @@
       <c r="O8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="U8" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1793,14 +1836,17 @@
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
-      <c r="T9" s="31" t="s">
+      <c r="P9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1821,11 +1867,11 @@
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="T10" s="31" t="s">
+      <c r="U10" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1844,11 +1890,11 @@
       <c r="L11" s="6"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="T11" s="31" t="s">
+      <c r="U11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1867,11 +1913,11 @@
       <c r="L12" s="6"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="T12" s="31" t="s">
+      <c r="U12" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1892,14 +1938,14 @@
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
-      <c r="T13" s="31" t="s">
+      <c r="U13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="V13" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -1926,11 +1972,14 @@
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="T14" t="s">
+      <c r="P14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1949,11 +1998,14 @@
       <c r="L15" s="6"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
-      <c r="T15" s="31" t="s">
+      <c r="P15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U15" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -1979,11 +2031,14 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="31" t="s">
+      <c r="P16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U16" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2004,11 +2059,14 @@
       </c>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
-      <c r="T17" s="31" t="s">
+      <c r="P17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2028,7 +2086,7 @@
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2054,11 +2112,14 @@
       <c r="O19" t="s">
         <v>89</v>
       </c>
-      <c r="T19" s="31" t="s">
+      <c r="P19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U19" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2079,11 +2140,11 @@
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="T20" s="31" t="s">
+      <c r="U20" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2106,11 +2167,11 @@
       <c r="L21" s="6"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="T21" s="31" t="s">
+      <c r="U21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2138,7 +2199,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2158,7 +2219,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2178,7 +2239,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2197,10 +2258,17 @@
       <c r="L25" s="9"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="P25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C26" s="67" t="s">
         <v>121</v>
+      </c>
+      <c r="P26" s="1">
+        <f>COUNTIF(P4:P25,"TO DO")</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49282D05-2A32-48D9-BA48-A86F83D95468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="128">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -419,12 +418,15 @@
   </si>
   <si>
     <t>:(</t>
+  </si>
+  <si>
+    <t>Transmission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -980,11 +982,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1190,6 +1225,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1470,28 +1520,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="6" style="4" customWidth="1"/>
-    <col min="15" max="15" width="6" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="1" customWidth="1"/>
-    <col min="22" max="63" width="4.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="6" style="4" customWidth="1"/>
+    <col min="16" max="16" width="6" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" customWidth="1"/>
+    <col min="23" max="64" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1510,29 +1560,29 @@
       <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="4">
         <v>7</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L1" s="4">
         <v>8</v>
       </c>
-      <c r="L1" s="4">
+      <c r="M1" s="4">
         <v>9</v>
       </c>
-      <c r="M1" s="4">
+      <c r="N1" s="4">
         <v>10</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>11</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="72" t="s">
         <v>31</v>
       </c>
@@ -1550,60 +1600,61 @@
       <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="O2" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Z2" s="43" t="s">
+      <c r="Q2" s="3"/>
+      <c r="AA2" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AG2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AH2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AI2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
       <c r="AM2" s="43"/>
       <c r="AN2" s="43"/>
-    </row>
-    <row r="3" spans="1:40" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AO2" s="43"/>
+    </row>
+    <row r="3" spans="1:41" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="53" t="s">
         <v>119</v>
       </c>
@@ -1624,14 +1675,16 @@
         <v>116</v>
       </c>
       <c r="J3" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="24"/>
-      <c r="Z3" s="43"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="24"/>
       <c r="AA3" s="43"/>
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
@@ -1646,8 +1699,9 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
       <c r="AN3" s="43"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AO3" s="43"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1663,23 +1717,24 @@
       <c r="G4" s="45"/>
       <c r="H4" s="60"/>
       <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="25"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="25"/>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="25"/>
+      <c r="Q4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="33"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="X4" s="33"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1697,25 +1752,26 @@
       <c r="G5" s="46"/>
       <c r="H5" s="61"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="26"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="26"/>
-      <c r="O5" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="V5" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1733,19 +1789,20 @@
       <c r="I6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="26"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="26"/>
-      <c r="P6" s="1" t="s">
+      <c r="O6" s="26"/>
+      <c r="Q6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="V6" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1761,23 +1818,24 @@
       <c r="G7" s="46"/>
       <c r="H7" s="61"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="68" t="s">
+      <c r="J7" s="78"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="P7" s="1" t="s">
+      <c r="O7" s="26"/>
+      <c r="Q7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="V7" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1793,27 +1851,28 @@
       <c r="G8" s="46"/>
       <c r="H8" s="69"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="68" t="s">
+      <c r="J8" s="76"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="26"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="V8" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1829,24 +1888,25 @@
       <c r="G9" s="46"/>
       <c r="H9" s="61"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="68" t="s">
+      <c r="J9" s="76"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="26"/>
       <c r="N9" s="26"/>
-      <c r="P9" s="1" t="s">
+      <c r="O9" s="26"/>
+      <c r="Q9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="V9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1860,18 +1920,19 @@
       <c r="G10" s="47"/>
       <c r="H10" s="61"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="68" t="s">
+      <c r="J10" s="76"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="U10" s="31" t="s">
+      <c r="O10" s="26"/>
+      <c r="V10" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1885,16 +1946,17 @@
       <c r="G11" s="47"/>
       <c r="H11" s="61"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="26"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="26"/>
-      <c r="U11" s="31" t="s">
+      <c r="O11" s="26"/>
+      <c r="V11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1908,16 +1970,17 @@
       <c r="G12" s="47"/>
       <c r="H12" s="61"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="26"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="26"/>
-      <c r="U12" s="31" t="s">
+      <c r="O12" s="26"/>
+      <c r="V12" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1931,21 +1994,22 @@
       <c r="G13" s="47"/>
       <c r="H13" s="61"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="6" t="s">
+      <c r="J13" s="76"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="26"/>
       <c r="N13" s="26"/>
-      <c r="U13" s="31" t="s">
+      <c r="O13" s="26"/>
+      <c r="V13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="W13" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -1963,23 +2027,24 @@
       <c r="G14" s="47"/>
       <c r="H14" s="61"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="76"/>
+      <c r="K14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="57"/>
+      <c r="M14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="P14" s="1" t="s">
+      <c r="O14" s="26"/>
+      <c r="Q14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1993,19 +2058,20 @@
       <c r="G15" s="47"/>
       <c r="H15" s="61"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="26"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="26"/>
-      <c r="P15" s="1" t="s">
+      <c r="O15" s="26"/>
+      <c r="Q15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U15" s="31" t="s">
+      <c r="V15" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2023,22 +2089,23 @@
       <c r="G16" s="46"/>
       <c r="H16" s="61"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="26"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="26"/>
-      <c r="O16" t="s">
+      <c r="O16" s="26"/>
+      <c r="P16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>123</v>
       </c>
-      <c r="U16" s="31" t="s">
+      <c r="V16" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2052,21 +2119,22 @@
       <c r="G17" s="47"/>
       <c r="H17" s="61"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="6" t="s">
+      <c r="J17" s="76"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="26"/>
       <c r="N17" s="26"/>
-      <c r="P17" s="1" t="s">
+      <c r="O17" s="26"/>
+      <c r="Q17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="31" t="s">
+      <c r="V17" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2080,13 +2148,14 @@
       <c r="G18" s="46"/>
       <c r="H18" s="61"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="26"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2104,22 +2173,23 @@
       <c r="G19" s="47"/>
       <c r="H19" s="61"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="26"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="26"/>
-      <c r="O19" t="s">
+      <c r="O19" s="26"/>
+      <c r="P19" t="s">
         <v>89</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>123</v>
       </c>
-      <c r="U19" s="31" t="s">
+      <c r="V19" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2133,18 +2203,19 @@
       <c r="G20" s="47"/>
       <c r="H20" s="61"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="6" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="U20" s="31" t="s">
+      <c r="O20" s="26"/>
+      <c r="V20" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2162,16 +2233,17 @@
       <c r="G21" s="47"/>
       <c r="H21" s="61"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="26"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="26"/>
-      <c r="U21" s="31" t="s">
+      <c r="O21" s="26"/>
+      <c r="V21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2191,15 +2263,16 @@
       <c r="G22" s="47"/>
       <c r="H22" s="61"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="6" t="s">
+      <c r="J22" s="76"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="26"/>
       <c r="N22" s="26"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2213,13 +2286,14 @@
       <c r="G23" s="47"/>
       <c r="H23" s="61"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="26"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="26"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2233,13 +2307,14 @@
       <c r="G24" s="46"/>
       <c r="H24" s="61"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="26"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="26"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2253,21 +2328,22 @@
       <c r="G25" s="48"/>
       <c r="H25" s="63"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="27"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="27"/>
-      <c r="P25" s="1" t="s">
+      <c r="O25" s="27"/>
+      <c r="Q25" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C26" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="1">
-        <f>COUNTIF(P4:P25,"TO DO")</f>
+      <c r="Q26" s="1">
+        <f>COUNTIF(Q4:Q25,"TO DO")</f>
         <v>10</v>
       </c>
     </row>
@@ -2275,7 +2351,7 @@
   <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2283,7 +2359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -2294,13 +2370,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2368,7 +2444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2444,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2452,7 +2528,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +2536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2468,7 +2544,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2476,7 +2552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2563,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2571,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2506,7 +2582,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2525,7 +2601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2533,7 +2609,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2544,7 +2620,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2555,7 +2631,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2566,7 +2642,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2574,7 +2650,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2585,7 +2661,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2593,7 +2669,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2601,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2612,7 +2688,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2623,7 +2699,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2631,7 +2707,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2639,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2647,7 +2723,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2658,7 +2734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2669,7 +2745,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2680,7 +2756,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2688,7 +2764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2696,7 +2772,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2710,7 +2786,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2721,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2732,12 +2808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2748,7 +2824,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -2759,7 +2835,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2770,7 +2846,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2781,7 +2857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2792,7 +2868,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2803,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2811,7 +2887,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2822,7 +2898,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1214,6 +1214,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1228,18 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1528,7 @@
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,25 +1583,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="23" t="s">
         <v>104</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="60"/>
       <c r="I4" s="51"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="52"/>
       <c r="L4" s="56"/>
       <c r="M4" s="52"/>
@@ -1752,7 +1752,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="61"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="76"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="6"/>
       <c r="L5" s="57"/>
       <c r="M5" s="6"/>
@@ -1775,9 +1775,6 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="29">
         <v>3</v>
       </c>
@@ -1789,7 +1786,7 @@
       <c r="I6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="49"/>
       <c r="L6" s="57"/>
       <c r="M6" s="6"/>
@@ -1818,7 +1815,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="61"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="78"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="6"/>
       <c r="L7" s="57"/>
       <c r="M7" s="68" t="s">
@@ -1851,7 +1848,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="69"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="76"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="6"/>
       <c r="L8" s="57"/>
       <c r="M8" s="68" t="s">
@@ -1888,7 +1885,7 @@
       <c r="G9" s="46"/>
       <c r="H9" s="61"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="76"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="6"/>
       <c r="L9" s="57"/>
       <c r="M9" s="68" t="s">
@@ -1920,7 +1917,7 @@
       <c r="G10" s="47"/>
       <c r="H10" s="61"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="76"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="6"/>
       <c r="L10" s="57"/>
       <c r="M10" s="68" t="s">
@@ -1946,7 +1943,7 @@
       <c r="G11" s="47"/>
       <c r="H11" s="61"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="76"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="6"/>
       <c r="L11" s="57"/>
       <c r="M11" s="6"/>
@@ -1970,12 +1967,14 @@
       <c r="G12" s="47"/>
       <c r="H12" s="61"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="76"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="6"/>
       <c r="L12" s="57"/>
       <c r="M12" s="6"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="O12" s="35" t="s">
+        <v>6</v>
+      </c>
       <c r="V12" s="31" t="s">
         <v>20</v>
       </c>
@@ -1994,7 +1993,7 @@
       <c r="G13" s="47"/>
       <c r="H13" s="61"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="76"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="6"/>
       <c r="L13" s="57"/>
       <c r="M13" s="6" t="s">
@@ -2027,7 +2026,7 @@
       <c r="G14" s="47"/>
       <c r="H14" s="61"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="76"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="49" t="s">
         <v>27</v>
       </c>
@@ -2058,7 +2057,7 @@
       <c r="G15" s="47"/>
       <c r="H15" s="61"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="76"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="6"/>
       <c r="L15" s="57"/>
       <c r="M15" s="6"/>
@@ -2089,7 +2088,7 @@
       <c r="G16" s="46"/>
       <c r="H16" s="61"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="76"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="6"/>
       <c r="L16" s="57"/>
       <c r="M16" s="54"/>
@@ -2119,7 +2118,7 @@
       <c r="G17" s="47"/>
       <c r="H17" s="61"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="76"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="6"/>
       <c r="L17" s="57"/>
       <c r="M17" s="6" t="s">
@@ -2148,7 +2147,7 @@
       <c r="G18" s="46"/>
       <c r="H18" s="61"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="76"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="6"/>
       <c r="L18" s="57"/>
       <c r="M18" s="6"/>
@@ -2173,7 +2172,7 @@
       <c r="G19" s="47"/>
       <c r="H19" s="61"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="76"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="59"/>
       <c r="L19" s="57"/>
       <c r="M19" s="6"/>
@@ -2203,7 +2202,7 @@
       <c r="G20" s="47"/>
       <c r="H20" s="61"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="76"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="6"/>
       <c r="L20" s="57"/>
       <c r="M20" s="6" t="s">
@@ -2233,7 +2232,7 @@
       <c r="G21" s="47"/>
       <c r="H21" s="61"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="76"/>
+      <c r="J21" s="71"/>
       <c r="K21" s="6"/>
       <c r="L21" s="57"/>
       <c r="M21" s="6"/>
@@ -2263,7 +2262,7 @@
       <c r="G22" s="47"/>
       <c r="H22" s="61"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="76"/>
+      <c r="J22" s="71"/>
       <c r="K22" s="6"/>
       <c r="L22" s="57"/>
       <c r="M22" s="6" t="s">
@@ -2286,7 +2285,7 @@
       <c r="G23" s="47"/>
       <c r="H23" s="61"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="76"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="6"/>
       <c r="L23" s="57"/>
       <c r="M23" s="6"/>
@@ -2307,7 +2306,7 @@
       <c r="G24" s="46"/>
       <c r="H24" s="61"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="76"/>
+      <c r="J24" s="71"/>
       <c r="K24" s="6"/>
       <c r="L24" s="57"/>
       <c r="M24" s="6"/>
@@ -2328,7 +2327,7 @@
       <c r="G25" s="48"/>
       <c r="H25" s="63"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="77"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="9"/>
       <c r="L25" s="58"/>
       <c r="M25" s="9"/>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D1F36-C3FD-41A9-87E4-A99C487931ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -134,49 +135,7 @@
     <t>Analyser un système</t>
   </si>
   <si>
-    <t>BGR</t>
-  </si>
-  <si>
-    <t>Pilote</t>
-  </si>
-  <si>
-    <t>I3D</t>
-  </si>
-  <si>
-    <t>Eric3</t>
-  </si>
-  <si>
-    <t>RobotDelta2D</t>
-  </si>
-  <si>
-    <t>Maxpid</t>
-  </si>
-  <si>
-    <t>BrasBeta</t>
-  </si>
-  <si>
-    <t>Portail</t>
-  </si>
-  <si>
-    <t>RC4</t>
-  </si>
-  <si>
-    <t>MobyCrea</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Comax</t>
-  </si>
-  <si>
-    <t>Plateforme6 axes</t>
-  </si>
-  <si>
-    <t>D2C (?)</t>
-  </si>
-  <si>
-    <t>Haptique</t>
   </si>
   <si>
     <t>Robot à câbles RC4</t>
@@ -369,9 +328,6 @@
     <t>Mesure de J</t>
   </si>
   <si>
-    <t>Mesure de fv</t>
-  </si>
-  <si>
     <t>Identification moteur BO tempo</t>
   </si>
   <si>
@@ -421,12 +377,27 @@
   </si>
   <si>
     <t>Transmission</t>
+  </si>
+  <si>
+    <t>Mesure de fv/fs</t>
+  </si>
+  <si>
+    <t>Possibilité ?</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1019,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1240,6 +1211,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,28 +1497,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O16" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="6" style="4" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" customWidth="1"/>
-    <col min="23" max="64" width="4.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="1" customWidth="1"/>
+    <col min="23" max="30" width="4.1796875" customWidth="1"/>
+    <col min="31" max="31" width="4.1796875" style="79" customWidth="1"/>
+    <col min="32" max="64" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1579,16 +1558,16 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="149.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="76" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="42" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F2" s="74" t="s">
         <v>30</v>
@@ -1603,50 +1582,50 @@
       <c r="J2" s="78"/>
       <c r="K2" s="77"/>
       <c r="L2" s="23" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="AA2" s="43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AB2" s="43" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AC2" s="43" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE2" s="43" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="AF2" s="43" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="43" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="43" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AI2" s="43" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="43" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -1654,9 +1633,9 @@
       <c r="AN2" s="43"/>
       <c r="AO2" s="43"/>
     </row>
-    <row r="3" spans="1:41" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="53" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>0</v>
@@ -1665,23 +1644,23 @@
         <v>25</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="64"/>
       <c r="I3" s="65" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="24"/>
@@ -1689,7 +1668,9 @@
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
       <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
+      <c r="AE3" s="80" t="s">
+        <v>114</v>
+      </c>
       <c r="AF3" s="43"/>
       <c r="AG3" s="43"/>
       <c r="AH3" s="43"/>
@@ -1701,7 +1682,7 @@
       <c r="AN3" s="43"/>
       <c r="AO3" s="43"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1709,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="17"/>
@@ -1724,17 +1705,14 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="Q4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="X4" s="33"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE4" s="79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1742,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>28</v>
@@ -1762,18 +1740,22 @@
         <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="V5" s="31"/>
+      <c r="AE5" s="79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="29">
         <v>3</v>
@@ -1793,13 +1775,14 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
       <c r="Q6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V6" s="31"/>
+      <c r="AE6" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1826,13 +1809,15 @@
       </c>
       <c r="O7" s="26"/>
       <c r="Q7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1857,19 +1842,20 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="AE8" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1894,16 +1880,14 @@
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="Q9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V9" s="31"/>
+      <c r="AE9" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1925,11 +1909,12 @@
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
-      <c r="V10" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="V10" s="31"/>
+      <c r="AE10" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1949,11 +1934,12 @@
       <c r="M11" s="6"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="V11" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="V11" s="31"/>
+      <c r="AE11" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1975,11 +1961,12 @@
       <c r="O12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="V12" s="31"/>
+      <c r="AE12" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1997,18 +1984,17 @@
       <c r="K13" s="6"/>
       <c r="L13" s="57"/>
       <c r="M13" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="V13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="V13" s="31"/>
+      <c r="W13" s="32"/>
+      <c r="AE13" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -2037,13 +2023,13 @@
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="Q14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -2064,13 +2050,14 @@
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="Q15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V15" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V15" s="31"/>
+      <c r="AE15" s="79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2095,16 +2082,17 @@
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="s">
-        <v>123</v>
-      </c>
-      <c r="V16" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V16" s="31"/>
+      <c r="AE16" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2127,13 +2115,14 @@
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="Q17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="V17" s="31"/>
+      <c r="AE17" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2153,13 +2142,16 @@
       <c r="M18" s="6"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AE18" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>16</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C19" s="34">
         <v>9</v>
@@ -2179,16 +2171,17 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>123</v>
-      </c>
-      <c r="V19" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="V19" s="31"/>
+      <c r="AE19" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2206,15 +2199,16 @@
       <c r="K20" s="6"/>
       <c r="L20" s="57"/>
       <c r="M20" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
-      <c r="V20" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="31"/>
+      <c r="AE20" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2238,11 +2232,12 @@
       <c r="M21" s="6"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="V21" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="31"/>
+      <c r="AE21" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2270,8 +2265,11 @@
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AE22" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2291,8 +2289,11 @@
       <c r="M23" s="6"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AE23" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2312,8 +2313,11 @@
       <c r="M24" s="6"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE24" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2334,16 +2338,41 @@
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="Q25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="1">
-        <f>COUNTIF(Q4:Q25,"TO DO")</f>
-        <v>10</v>
+        <v>108</v>
+      </c>
+      <c r="AE25" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="Q26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C27" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>COUNTIF(Q4:Q26,"TO DO")</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -2369,13 +2398,13 @@
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2443,7 +2472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="93" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
@@ -2490,7 +2519,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R2" s="36" t="s">
         <v>19</v>
@@ -2511,68 +2540,68 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="S9">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -2581,36 +2610,36 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>1.7</v>
@@ -2619,20 +2648,20 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2641,17 +2670,17 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H18">
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>1.8</v>
@@ -2660,25 +2689,25 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2687,9 +2716,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>1.2</v>
@@ -2698,85 +2727,85 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T28">
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="S30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="T31">
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L32">
         <v>1.2</v>
@@ -2785,9 +2814,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2796,9 +2825,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>1.8</v>
@@ -2807,14 +2836,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <v>1.2</v>
@@ -2823,9 +2852,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>1.2</v>
@@ -2834,9 +2863,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L38">
         <v>1.2</v>
@@ -2845,20 +2874,20 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>1.2</v>
@@ -2867,9 +2896,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G41">
         <v>1.4</v>
@@ -2878,17 +2907,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <v>1.7</v>
@@ -2897,9 +2926,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K44">
         <v>1.4</v>

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D1F36-C3FD-41A9-87E4-A99C487931ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668CE2E-2085-42B8-B7E7-133A7E0B684D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,9 +1176,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1196,6 +1193,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -1212,11 +1215,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,11 +1501,11 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O16" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1516,7 +1516,7 @@
     <col min="16" max="16" width="6" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.54296875" style="1" customWidth="1"/>
     <col min="23" max="30" width="4.1796875" customWidth="1"/>
-    <col min="31" max="31" width="4.1796875" style="79" customWidth="1"/>
+    <col min="31" max="31" width="4.1796875" style="73" customWidth="1"/>
     <col min="32" max="64" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1562,25 +1562,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="77"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="23" t="s">
         <v>90</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
       <c r="AD3" s="43"/>
-      <c r="AE3" s="80" t="s">
+      <c r="AE3" s="74" t="s">
         <v>114</v>
       </c>
       <c r="AF3" s="43"/>
@@ -1698,7 +1698,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="60"/>
       <c r="I4" s="51"/>
-      <c r="J4" s="70"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="52"/>
       <c r="L4" s="56"/>
       <c r="M4" s="52"/>
@@ -1708,7 +1708,7 @@
         <v>111</v>
       </c>
       <c r="X4" s="33"/>
-      <c r="AE4" s="79" t="s">
+      <c r="AE4" s="73" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="61"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="71"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="6"/>
       <c r="L5" s="57"/>
       <c r="M5" s="6"/>
@@ -1746,7 +1746,7 @@
         <v>36</v>
       </c>
       <c r="V5" s="31"/>
-      <c r="AE5" s="79" t="s">
+      <c r="AE5" s="73" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       <c r="I6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="71"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="49"/>
       <c r="L6" s="57"/>
       <c r="M6" s="6"/>
@@ -1778,7 +1778,7 @@
         <v>108</v>
       </c>
       <c r="V6" s="31"/>
-      <c r="AE6" s="79" t="s">
+      <c r="AE6" s="73" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1798,10 +1798,10 @@
       <c r="G7" s="46"/>
       <c r="H7" s="61"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="73"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="6"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="67" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="26" t="s">
@@ -1812,8 +1812,8 @@
         <v>108</v>
       </c>
       <c r="V7" s="31"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79" t="s">
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       <c r="E8" s="22"/>
       <c r="F8" s="5"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="71"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="6"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="67" t="s">
         <v>27</v>
       </c>
       <c r="N8" s="26"/>
@@ -1851,7 +1851,7 @@
         <v>77</v>
       </c>
       <c r="V8" s="31"/>
-      <c r="AE8" s="79" t="s">
+      <c r="AE8" s="73" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1871,10 +1871,10 @@
       <c r="G9" s="46"/>
       <c r="H9" s="61"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="71"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="6"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="67" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="26"/>
@@ -1883,7 +1883,7 @@
         <v>108</v>
       </c>
       <c r="V9" s="31"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AE9" s="73" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1901,16 +1901,16 @@
       <c r="G10" s="47"/>
       <c r="H10" s="61"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="71"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="6"/>
       <c r="L10" s="57"/>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="67" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="V10" s="31"/>
-      <c r="AE10" s="79" t="s">
+      <c r="AE10" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1928,14 +1928,14 @@
       <c r="G11" s="47"/>
       <c r="H11" s="61"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="71"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="6"/>
       <c r="L11" s="57"/>
       <c r="M11" s="6"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="V11" s="31"/>
-      <c r="AE11" s="79" t="s">
+      <c r="AE11" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="G12" s="47"/>
       <c r="H12" s="61"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="71"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="6"/>
       <c r="L12" s="57"/>
       <c r="M12" s="6"/>
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="V12" s="31"/>
-      <c r="AE12" s="79" t="s">
+      <c r="AE12" s="73" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       <c r="G13" s="47"/>
       <c r="H13" s="61"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="71"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="6"/>
       <c r="L13" s="57"/>
       <c r="M13" s="6" t="s">
@@ -1990,7 +1990,7 @@
       <c r="O13" s="26"/>
       <c r="V13" s="31"/>
       <c r="W13" s="32"/>
-      <c r="AE13" s="79" t="s">
+      <c r="AE13" s="73" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       <c r="G14" s="47"/>
       <c r="H14" s="61"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="71"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="49" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="Q14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AE14" s="79" t="s">
+      <c r="AE14" s="73" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       <c r="G15" s="47"/>
       <c r="H15" s="61"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="71"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="6"/>
       <c r="L15" s="57"/>
       <c r="M15" s="6"/>
@@ -2053,7 +2053,7 @@
         <v>108</v>
       </c>
       <c r="V15" s="31"/>
-      <c r="AE15" s="79" t="s">
+      <c r="AE15" s="73" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       <c r="G16" s="46"/>
       <c r="H16" s="61"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="71"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="6"/>
       <c r="L16" s="57"/>
       <c r="M16" s="54"/>
@@ -2088,7 +2088,7 @@
         <v>108</v>
       </c>
       <c r="V16" s="31"/>
-      <c r="AE16" s="79" t="s">
+      <c r="AE16" s="73" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       <c r="G17" s="47"/>
       <c r="H17" s="61"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="71"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="6"/>
       <c r="L17" s="57"/>
       <c r="M17" s="6" t="s">
@@ -2118,7 +2118,7 @@
         <v>110</v>
       </c>
       <c r="V17" s="31"/>
-      <c r="AE17" s="79" t="s">
+      <c r="AE17" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2136,13 +2136,13 @@
       <c r="G18" s="46"/>
       <c r="H18" s="61"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="71"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="6"/>
       <c r="L18" s="57"/>
       <c r="M18" s="6"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
-      <c r="AE18" s="79" t="s">
+      <c r="AE18" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       <c r="G19" s="47"/>
       <c r="H19" s="61"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="59"/>
       <c r="L19" s="57"/>
       <c r="M19" s="6"/>
@@ -2177,7 +2177,7 @@
         <v>108</v>
       </c>
       <c r="V19" s="31"/>
-      <c r="AE19" s="79" t="s">
+      <c r="AE19" s="73" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="G20" s="47"/>
       <c r="H20" s="61"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="6"/>
       <c r="L20" s="57"/>
       <c r="M20" s="6" t="s">
@@ -2204,7 +2204,7 @@
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
       <c r="V20" s="31"/>
-      <c r="AE20" s="79" t="s">
+      <c r="AE20" s="73" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2226,14 +2226,14 @@
       <c r="G21" s="47"/>
       <c r="H21" s="61"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="71"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="6"/>
       <c r="L21" s="57"/>
       <c r="M21" s="6"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
       <c r="V21" s="31"/>
-      <c r="AE21" s="79" t="s">
+      <c r="AE21" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="G22" s="47"/>
       <c r="H22" s="61"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="71"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="6"/>
       <c r="L22" s="57"/>
       <c r="M22" s="6" t="s">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
-      <c r="AE22" s="79" t="s">
+      <c r="AE22" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2283,13 +2283,13 @@
       <c r="G23" s="47"/>
       <c r="H23" s="61"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="71"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="6"/>
       <c r="L23" s="57"/>
       <c r="M23" s="6"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="AE23" s="79" t="s">
+      <c r="AE23" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2307,13 +2307,13 @@
       <c r="G24" s="46"/>
       <c r="H24" s="61"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="71"/>
+      <c r="J24" s="70"/>
       <c r="K24" s="6"/>
       <c r="L24" s="57"/>
       <c r="M24" s="6"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
-      <c r="AE24" s="79" t="s">
+      <c r="AE24" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="G25" s="48"/>
       <c r="H25" s="63"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="72"/>
+      <c r="J25" s="71"/>
       <c r="K25" s="9"/>
       <c r="L25" s="58"/>
       <c r="M25" s="9"/>
@@ -2340,7 +2340,7 @@
       <c r="Q25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" s="79" t="s">
+      <c r="AE25" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="G26" s="48"/>
       <c r="H26" s="63"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="72"/>
+      <c r="J26" s="71"/>
       <c r="K26" s="9"/>
       <c r="L26" s="58"/>
       <c r="M26" s="9"/>
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="80" t="s">
         <v>106</v>
       </c>
       <c r="Q27" s="1">

--- a/BilanSujets.xlsx
+++ b/BilanSujets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668CE2E-2085-42B8-B7E7-133A7E0B684D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A90B92E-C90A-4DE3-9A83-B4370AB48818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sujets" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
   <si>
     <t>Chaine fonctionnelle du système</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>O?</t>
+  </si>
+  <si>
+    <t>Attelle CPM 130</t>
   </si>
 </sst>
 </file>
@@ -1200,6 +1203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1214,9 +1220,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,11 +1504,11 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B4:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1562,25 +1565,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="78"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="78"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="23" t="s">
         <v>90</v>
       </c>
@@ -2346,9 +2349,11 @@
     </row>
     <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13">
-        <v>23</v>
-      </c>
-      <c r="B26" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="66"/>
@@ -2367,7 +2372,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="75" t="s">
         <v>106</v>
       </c>
       <c r="Q27" s="1">
